--- a/data/fakesystem/sys_SSE.xlsx
+++ b/data/fakesystem/sys_SSE.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="SSE" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="441">
   <si>
     <t>Department</t>
   </si>
@@ -25,7 +25,7 @@
     <t>User ID</t>
   </si>
   <si>
-    <t>Fullname</t>
+    <t>Name</t>
   </si>
   <si>
     <t>System1</t>
@@ -154,1213 +154,1186 @@
     <t>BYND</t>
   </si>
   <si>
-    <t>P4746KWY3MC946KSC</t>
-  </si>
-  <si>
-    <t>DT1HWZE13XSCFUD2R</t>
-  </si>
-  <si>
-    <t>8ER3T0DV3X9XCSZTG</t>
-  </si>
-  <si>
-    <t>0EY1P0RF6MBLRLK24</t>
-  </si>
-  <si>
-    <t>H4XZDTLH0EMTWEKDB</t>
-  </si>
-  <si>
-    <t>BUHPD8M84LL5NZY4T</t>
-  </si>
-  <si>
-    <t>MHX3KJAL13TYXLSGY</t>
-  </si>
-  <si>
-    <t>HW3RBYXXXHYRRHAXF</t>
-  </si>
-  <si>
-    <t>TR7VK3WJ4SAPGDANZ</t>
-  </si>
-  <si>
-    <t>ZHJGY3SY7RVSMTU88</t>
-  </si>
-  <si>
-    <t>C8191VG82WU3E4GFT</t>
-  </si>
-  <si>
-    <t>HSNENFER8RS0ADZNX</t>
-  </si>
-  <si>
-    <t>S3GZLKY976UK91KWG</t>
-  </si>
-  <si>
-    <t>7G20B2RH9P1S1J91M</t>
-  </si>
-  <si>
-    <t>AE17UTF37EZAYXTMV</t>
-  </si>
-  <si>
-    <t>X02H21G18CUFVL0SN</t>
-  </si>
-  <si>
-    <t>F2UJLHYA4L99G345U</t>
-  </si>
-  <si>
-    <t>6EEAUBBL2B16K31D7</t>
-  </si>
-  <si>
-    <t>0KN6NAFB1FKUDBFF3</t>
-  </si>
-  <si>
-    <t>M3VP5R26204M6J03B</t>
-  </si>
-  <si>
-    <t>T10J5K477JG4YW8YX</t>
-  </si>
-  <si>
-    <t>JM04FHPL2V2J82H78</t>
-  </si>
-  <si>
-    <t>E2SKRNT118486BK2W</t>
-  </si>
-  <si>
-    <t>EV6JMHFFX55ZVDRHU</t>
-  </si>
-  <si>
-    <t>WMW5M8ZW9NA0MUFN7</t>
-  </si>
-  <si>
-    <t>PTZ7PH206J8KFDA4N</t>
-  </si>
-  <si>
-    <t>FFNLWNGT61UGB3MH8</t>
-  </si>
-  <si>
-    <t>EYB7S7J69HF9HDZVW</t>
-  </si>
-  <si>
-    <t>FWCSRBFE64RACKLKM</t>
-  </si>
-  <si>
-    <t>W69X5HV7178UVVR0A</t>
-  </si>
-  <si>
-    <t>NCJPUMF6XAGWNGM5F</t>
-  </si>
-  <si>
-    <t>AZTVUR6400P8CGCW7</t>
-  </si>
-  <si>
-    <t>96G5K3MP49KUZTC4Y</t>
-  </si>
-  <si>
-    <t>B2B0P9SV2A79FB1X2</t>
-  </si>
-  <si>
-    <t>ELSZP5DU9G2UUT43X</t>
-  </si>
-  <si>
-    <t>JTKU7A8P8XCDDYMVY</t>
-  </si>
-  <si>
-    <t>55J4ST1P35JB2GV5H</t>
-  </si>
-  <si>
-    <t>AP7ZZLDL1WZ6NZUF7</t>
-  </si>
-  <si>
-    <t>6F6EFVPK179XXRB33</t>
-  </si>
-  <si>
-    <t>X944CH4R9BK0UB04L</t>
-  </si>
-  <si>
-    <t>TAMBTPCK578KP886B</t>
-  </si>
-  <si>
-    <t>G3PAXU6T8Y9TN61XP</t>
-  </si>
-  <si>
-    <t>LTLRRW6D9VRDSCNLF</t>
-  </si>
-  <si>
-    <t>LF8BN3TGXGKDCNMWK</t>
-  </si>
-  <si>
-    <t>0B8DY0T09ZYWXAWM2</t>
-  </si>
-  <si>
-    <t>VCLCJ9DX4NFL17PBD</t>
-  </si>
-  <si>
-    <t>16PJY2NJ336N87N4D</t>
-  </si>
-  <si>
-    <t>CASEESY16ZTUMM21T</t>
-  </si>
-  <si>
-    <t>4D0ZDU4X7ZBSD3TC5</t>
-  </si>
-  <si>
-    <t>R6DFJHJN6ZSYF4C36</t>
-  </si>
-  <si>
-    <t>VX7TN94TXPSN7D2WL</t>
-  </si>
-  <si>
-    <t>GL4KG3091U0B0W48C</t>
-  </si>
-  <si>
-    <t>VL28RBEG1EZA737Z7</t>
-  </si>
-  <si>
-    <t>WSM9ZNYB7V8H1ETCF</t>
-  </si>
-  <si>
-    <t>F0KJK13D1SFTHUF3E</t>
-  </si>
-  <si>
-    <t>N7N3WK017DA33L828</t>
-  </si>
-  <si>
-    <t>MB5CJFAK3EM4WHG4V</t>
-  </si>
-  <si>
-    <t>E4ERGYMU0XECWE9XE</t>
-  </si>
-  <si>
-    <t>996EXNZ59DLMMY4RA</t>
-  </si>
-  <si>
-    <t>17ALDNPC5MTJGWWS1</t>
-  </si>
-  <si>
-    <t>Z7DEXDYL9VLDYSB2A</t>
-  </si>
-  <si>
-    <t>YGEFG9KX32ZWB1J6P</t>
-  </si>
-  <si>
-    <t>SKWNPV6H57BDAS2BH</t>
-  </si>
-  <si>
-    <t>7ME07LMS04BHTWVWW</t>
-  </si>
-  <si>
-    <t>P0XH92ZM4U4S9K02V</t>
-  </si>
-  <si>
-    <t>FW4H93M46PB8CD9EU</t>
-  </si>
-  <si>
-    <t>C4AFZ9N13T35ZJT4B</t>
-  </si>
-  <si>
-    <t>1496W0BU4G3M8H9FE</t>
-  </si>
-  <si>
-    <t>Y3N2BECD4VDS3U496</t>
-  </si>
-  <si>
-    <t>G5DBTDFN1RWE21RLS</t>
-  </si>
-  <si>
-    <t>JTAE7DFE99RRRDW96</t>
-  </si>
-  <si>
-    <t>EMU6GZFG28FG7BRFZ</t>
-  </si>
-  <si>
-    <t>ZFD8D77E1T79SX8M1</t>
-  </si>
-  <si>
-    <t>PAYYMSA03N7MS3UFF</t>
-  </si>
-  <si>
-    <t>2ANKG6CW9TLJTKZE8</t>
-  </si>
-  <si>
-    <t>JG3MW8X44JMCM3KLM</t>
-  </si>
-  <si>
-    <t>DA6ND2S83C7H5EUUK</t>
-  </si>
-  <si>
-    <t>C7Z7VDEL1X3TX5MSE</t>
-  </si>
-  <si>
-    <t>UW6N1X4B1DR0GGN9V</t>
-  </si>
-  <si>
-    <t>XJF1EB3K8KNSKBLVL</t>
-  </si>
-  <si>
-    <t>WVM3XEMY5H0JJK6U3</t>
-  </si>
-  <si>
-    <t>GFW08PTJ2KKST7B4M</t>
-  </si>
-  <si>
-    <t>TE9XR8542F4691T0R</t>
-  </si>
-  <si>
-    <t>VJT0M7GG3GRKC5YDN</t>
-  </si>
-  <si>
-    <t>D4P2SKU43N1YPWF6A</t>
-  </si>
-  <si>
-    <t>8N0EXTVY1MBRAKL6Z</t>
-  </si>
-  <si>
-    <t>54PHREAW9W79V6G3B</t>
-  </si>
-  <si>
-    <t>1VS30DYP4EES57SNF</t>
-  </si>
-  <si>
-    <t>ZWDSB65J46SBCJKVV</t>
-  </si>
-  <si>
-    <t>DRPRCRK8XYFEYA0N5</t>
-  </si>
-  <si>
-    <t>BJKD7DC6811ADHRK7</t>
-  </si>
-  <si>
-    <t>VMMX0RMLXD95ERV8Z</t>
-  </si>
-  <si>
-    <t>FLV1TMLW3NG3ASYJE</t>
-  </si>
-  <si>
-    <t>8X5FW6AA039NMPXEE</t>
-  </si>
-  <si>
-    <t>5NF9UWUX4MG6VKN8A</t>
-  </si>
-  <si>
-    <t>85NCMZVX9J4HP3AY0</t>
-  </si>
-  <si>
-    <t>X9KUG6LV8M8EPSWNJ</t>
-  </si>
-  <si>
-    <t>2LRPJ7YJ83YY0PXTD</t>
-  </si>
-  <si>
-    <t>YSVFY1UV5R2V3B5KL</t>
-  </si>
-  <si>
-    <t>FTXZBWSB8J9N8FNHK</t>
-  </si>
-  <si>
-    <t>PL3K78E48XF7H2F67</t>
-  </si>
-  <si>
-    <t>4KNXF1HB1R356F3Z0</t>
-  </si>
-  <si>
-    <t>3GFCUR0F92TSCKKJL</t>
-  </si>
-  <si>
-    <t>6RPSLDUM9MT9A6UJX</t>
-  </si>
-  <si>
-    <t>AW4GD8Z98D157NMAS</t>
-  </si>
-  <si>
-    <t>Y75ANE2X9GZ67NDP5</t>
-  </si>
-  <si>
-    <t>XSW2EVK74JDPPSC6X</t>
-  </si>
-  <si>
-    <t>YPSBLLW00KHYJ1P0R</t>
-  </si>
-  <si>
-    <t>MW99A86T3EPM5UTGE</t>
-  </si>
-  <si>
-    <t>GTEY6KY75MHC8KT63</t>
-  </si>
-  <si>
-    <t>DXMG3LVK7PXSJB7CS</t>
-  </si>
-  <si>
-    <t>2UHKGWGN29YYDXGBA</t>
-  </si>
-  <si>
-    <t>D3832P3E9YF0LZL6J</t>
-  </si>
-  <si>
-    <t>BR0474SZ0CS3UDSXS</t>
-  </si>
-  <si>
-    <t>XHE4GM483K2NLXEPF</t>
-  </si>
-  <si>
-    <t>6RT3UH7V8AJPF69NL</t>
-  </si>
-  <si>
-    <t>7F2D67C61G7JPWM9G</t>
-  </si>
-  <si>
-    <t>H6NTVRBJ9Y4R62LM0</t>
-  </si>
-  <si>
-    <t>VSNUN7190TXDAF6BK</t>
-  </si>
-  <si>
-    <t>1S1MZWXA24CYUSLUV</t>
-  </si>
-  <si>
-    <t>BX488GAZ6G93MPC3J</t>
-  </si>
-  <si>
-    <t>CLTJD8212XAUY183C</t>
-  </si>
-  <si>
-    <t>FMDA00JJ4LBPLT4C6</t>
-  </si>
-  <si>
-    <t>7AAD4CPC6CDJA684E</t>
-  </si>
-  <si>
-    <t>8LNAKGZBX6ULL484D</t>
-  </si>
-  <si>
-    <t>U4GBFBMS91Y5UY827</t>
-  </si>
-  <si>
-    <t>635D76P97ECYFJG9W</t>
-  </si>
-  <si>
-    <t>8WSZP53M57HCBEU8W</t>
-  </si>
-  <si>
-    <t>DGH9A7FY9BCKGCZ27</t>
-  </si>
-  <si>
-    <t>LLPTY1AX9L4E0RZ5L</t>
-  </si>
-  <si>
-    <t>20G4JL8WXZB0HZXZ8</t>
-  </si>
-  <si>
-    <t>CZXDY8Z75WKJUKB59</t>
-  </si>
-  <si>
-    <t>2NCTAH756YMY3XAK7</t>
-  </si>
-  <si>
-    <t>9XS13KVG2R3V5V3NC</t>
-  </si>
-  <si>
-    <t>9LUZXLX25VYY1FKH6</t>
-  </si>
-  <si>
-    <t>15R176HS7YPFFATJB</t>
-  </si>
-  <si>
-    <t>P8ZMDVF83MSHL9YWW</t>
-  </si>
-  <si>
-    <t>YG4G3FG64HGMM4TRT</t>
-  </si>
-  <si>
-    <t>3YHNBNF08W729HKPA</t>
-  </si>
-  <si>
-    <t>71SG84HV8LVG2P8NR</t>
-  </si>
-  <si>
-    <t>8CCRELD64LL2GUPLA</t>
-  </si>
-  <si>
-    <t>USKLUJB24XAYTDD0B</t>
-  </si>
-  <si>
-    <t>8Z1R10EH66B9HGV47</t>
-  </si>
-  <si>
-    <t>3RZ97TL25UVXH1R64</t>
-  </si>
-  <si>
-    <t>M5W3VEM65V4UK10YW</t>
-  </si>
-  <si>
-    <t>TTDWT1X774TDWA16V</t>
-  </si>
-  <si>
-    <t>MGJST3703C19ZAUAP</t>
-  </si>
-  <si>
-    <t>7RWJ87LN1H34BS25P</t>
-  </si>
-  <si>
-    <t>1LERHW078CJU747G3</t>
-  </si>
-  <si>
-    <t>W2CYAFXA3A10ZBYRY</t>
-  </si>
-  <si>
-    <t>5WR2C9ZJX7W2GS78U</t>
-  </si>
-  <si>
-    <t>0GKM0TJ235F7G271R</t>
-  </si>
-  <si>
-    <t>5S2NURFB69SFWX74D</t>
-  </si>
-  <si>
-    <t>TX7PPJ4V3HKK783WW</t>
-  </si>
-  <si>
-    <t>YHA7AABW61ELPC7FD</t>
-  </si>
-  <si>
-    <t>U3SGKD2W309VCLZJ7</t>
-  </si>
-  <si>
-    <t>HAMCWZGB8BKUSJAC9</t>
-  </si>
-  <si>
-    <t>58F9HJMZ1LU5KMBE2</t>
-  </si>
-  <si>
-    <t>DUSVJKJX6ZWJNU30X</t>
-  </si>
-  <si>
-    <t>SA6JEYAK34FX6BARK</t>
-  </si>
-  <si>
-    <t>FXCA9TPP6FVHPUV4U</t>
-  </si>
-  <si>
-    <t>PU8NUTZ82UZGN1HFU</t>
-  </si>
-  <si>
-    <t>05GESM4G6PN9XYL1Y</t>
-  </si>
-  <si>
-    <t>LDL1VGNN2V3JUATP9</t>
-  </si>
-  <si>
-    <t>AWDP12WA4NKJ8GT1Y</t>
-  </si>
-  <si>
-    <t>KNEN0WK58FVBMWEFK</t>
-  </si>
-  <si>
-    <t>ECLHGU9G22XRX1SYW</t>
-  </si>
-  <si>
-    <t>19FZ61EL3VTZRHVKY</t>
-  </si>
-  <si>
-    <t>HAFYMKN17T1Y21EMD</t>
-  </si>
-  <si>
-    <t>51S69J5S9HBRD4BRL</t>
-  </si>
-  <si>
-    <t>797KGTT55L1T6EUE0</t>
-  </si>
-  <si>
-    <t>L1B36HKH2YE3AJ9UH</t>
-  </si>
-  <si>
-    <t>KF975LV85674FG4A3</t>
-  </si>
-  <si>
-    <t>21MF6WL06JZ5FYYJL</t>
-  </si>
-  <si>
-    <t>YENRF14S6GGHAHDFC</t>
-  </si>
-  <si>
-    <t>20FM1AP6319FNG2K0</t>
-  </si>
-  <si>
-    <t>2YSYYW2L7H9EK89VF</t>
-  </si>
-  <si>
-    <t>3NW5KLUW3G4D7HKNE</t>
-  </si>
-  <si>
-    <t>5WR3Y0SW2VFHS841M</t>
-  </si>
-  <si>
-    <t>H50ZTRZRXWG17JPAU</t>
-  </si>
-  <si>
-    <t>CUGUF8KN29YVJ3R5Z</t>
-  </si>
-  <si>
-    <t>HA0BP8ZN61AWG8T7Y</t>
-  </si>
-  <si>
-    <t>6FKLUDJF369JX0XP6</t>
-  </si>
-  <si>
-    <t>MF64BVZB5C8S5DU51</t>
-  </si>
-  <si>
-    <t>5AE6750F911SXUK0L</t>
-  </si>
-  <si>
-    <t>0P5LM62S5A2VL28KJ</t>
-  </si>
-  <si>
-    <t>BUSK0DFY0NBKT35X0</t>
-  </si>
-  <si>
-    <t>CDDF2VK84HJRLB6S4</t>
-  </si>
-  <si>
-    <t>BTRACPCZ350DLAKGY</t>
-  </si>
-  <si>
-    <t>UT6AA65H5B8PCKNB5</t>
-  </si>
-  <si>
-    <t>GSXEN2NG38EBN6UPV</t>
-  </si>
-  <si>
-    <t>K46KCDPM8K2VPHWJX</t>
-  </si>
-  <si>
-    <t>1FX1C21K5LD48GYZJ</t>
-  </si>
-  <si>
-    <t>7JPGDYLE31WJCLG39</t>
-  </si>
-  <si>
-    <t>Y9A310747ERHEJZDZ</t>
-  </si>
-  <si>
-    <t>ZGGDRPV500LAKVTXL</t>
-  </si>
-  <si>
-    <t>679N4N9Y9ARU18DV1</t>
-  </si>
-  <si>
-    <t>Y7CE1YW319DMCY9DW</t>
-  </si>
-  <si>
-    <t>7V0H8B960LS4ALU8C</t>
-  </si>
-  <si>
-    <t>UT593TD97Y3EF9JX9</t>
-  </si>
-  <si>
-    <t>A8W8UGY01PWY2FKBX</t>
-  </si>
-  <si>
-    <t>NDLAJKK5XC8W06VDF</t>
-  </si>
-  <si>
-    <t>Sharon Bell</t>
-  </si>
-  <si>
-    <t>Andrew Martin</t>
-  </si>
-  <si>
-    <t>Felicia Davis</t>
-  </si>
-  <si>
-    <t>Morgan Griffin</t>
-  </si>
-  <si>
-    <t>Michael Rogers DDS</t>
-  </si>
-  <si>
-    <t>Juan Ritter</t>
-  </si>
-  <si>
-    <t>Shawn Palmer</t>
-  </si>
-  <si>
-    <t>Rebecca Wells</t>
-  </si>
-  <si>
-    <t>Robert Rollins</t>
-  </si>
-  <si>
-    <t>Anna Nichols</t>
-  </si>
-  <si>
-    <t>Loretta Newton</t>
-  </si>
-  <si>
-    <t>Brian Shields</t>
-  </si>
-  <si>
-    <t>Anna Richard</t>
-  </si>
-  <si>
-    <t>Austin Castillo</t>
-  </si>
-  <si>
-    <t>Michelle Bullock</t>
-  </si>
-  <si>
-    <t>Bryan Johnson</t>
-  </si>
-  <si>
-    <t>Julie Mitchell</t>
-  </si>
-  <si>
-    <t>Michael Torres</t>
-  </si>
-  <si>
-    <t>Donald Schmidt</t>
-  </si>
-  <si>
-    <t>Mindy Mckinney</t>
-  </si>
-  <si>
-    <t>Lisa Keith</t>
-  </si>
-  <si>
-    <t>Heather Reed</t>
-  </si>
-  <si>
-    <t>Tara Walters</t>
-  </si>
-  <si>
-    <t>Kenneth Stevenson</t>
-  </si>
-  <si>
-    <t>Jeremy Dawson</t>
-  </si>
-  <si>
-    <t>Steven Merritt</t>
-  </si>
-  <si>
-    <t>Pamela Anderson</t>
-  </si>
-  <si>
-    <t>Wayne Ward</t>
-  </si>
-  <si>
-    <t>Erik Morrison</t>
-  </si>
-  <si>
-    <t>Amy Petersen</t>
-  </si>
-  <si>
-    <t>Christopher Ford</t>
-  </si>
-  <si>
-    <t>Alejandra Figueroa</t>
-  </si>
-  <si>
-    <t>Hannah Hobbs</t>
-  </si>
-  <si>
-    <t>Christopher Whitehead</t>
-  </si>
-  <si>
-    <t>Christopher Valencia</t>
-  </si>
-  <si>
-    <t>Adam Pierce</t>
-  </si>
-  <si>
-    <t>Jennifer Clay</t>
+    <t>5X5YPK6W1268R9CBP</t>
+  </si>
+  <si>
+    <t>GLTMJSS6X7P6NBEDL</t>
+  </si>
+  <si>
+    <t>H9GXAA6K888E4NRE0</t>
+  </si>
+  <si>
+    <t>D6DN8Z064VGPV939K</t>
+  </si>
+  <si>
+    <t>EWBZM6YV67W33MXY9</t>
+  </si>
+  <si>
+    <t>CHGZSPRZ5PWC0MNX7</t>
+  </si>
+  <si>
+    <t>L3UR5ZAF6EEFPVSLW</t>
+  </si>
+  <si>
+    <t>H7TA6BDR8ZS0NK6ND</t>
+  </si>
+  <si>
+    <t>R31P76VR2F5N3X1E8</t>
+  </si>
+  <si>
+    <t>WRZZDUR66UZWVB0DH</t>
+  </si>
+  <si>
+    <t>DR618L2Z05NGC77Y9</t>
+  </si>
+  <si>
+    <t>AURG7K1RXGMNSYLSV</t>
+  </si>
+  <si>
+    <t>0DNJW78M083L0E0P7</t>
+  </si>
+  <si>
+    <t>FVB788ZE0XC1Z8TFF</t>
+  </si>
+  <si>
+    <t>NP81YVTZ4ZCUM4H39</t>
+  </si>
+  <si>
+    <t>3R6P67L465XCTEW52</t>
+  </si>
+  <si>
+    <t>KRC2RXHW2067GRMFL</t>
+  </si>
+  <si>
+    <t>99TTCX5T43R1RRWR1</t>
+  </si>
+  <si>
+    <t>2U5PJRW18MG4XGATV</t>
+  </si>
+  <si>
+    <t>G59DLRJL1PZG4CJA4</t>
+  </si>
+  <si>
+    <t>84VMZT0J5EV4Z4PTA</t>
+  </si>
+  <si>
+    <t>9YKXW3H793K5F5P8U</t>
+  </si>
+  <si>
+    <t>B0T4MTE15YK83TNG9</t>
+  </si>
+  <si>
+    <t>U3PEA95G89A21J3S4</t>
+  </si>
+  <si>
+    <t>WU3B98UV0134L0CEA</t>
+  </si>
+  <si>
+    <t>6ZCWTERS0VE2PLHFV</t>
+  </si>
+  <si>
+    <t>8B4GNML15YXXVADSK</t>
+  </si>
+  <si>
+    <t>6UEAKUUG0MDWUWSM7</t>
+  </si>
+  <si>
+    <t>G7JVD2NB55B88HDBU</t>
+  </si>
+  <si>
+    <t>LPVMT3F59VPK908B7</t>
+  </si>
+  <si>
+    <t>GC52YU0G8WD6VECZT</t>
+  </si>
+  <si>
+    <t>ZLVSSJSM4AV0Y0VZ1</t>
+  </si>
+  <si>
+    <t>ETLVMEE98NG5W3RLP</t>
+  </si>
+  <si>
+    <t>M1Y6BBNG5V3F6G8PE</t>
+  </si>
+  <si>
+    <t>TG1M2CGSXR0YRRDGH</t>
+  </si>
+  <si>
+    <t>CMRY80G73VZLH4BNR</t>
+  </si>
+  <si>
+    <t>MP3ASD052VEUFC7N3</t>
+  </si>
+  <si>
+    <t>ZMM341TC2DMX3HRWM</t>
+  </si>
+  <si>
+    <t>PKCUVRTWXSXGFEMD3</t>
+  </si>
+  <si>
+    <t>KDHDBJYA0JYPJ3JGA</t>
+  </si>
+  <si>
+    <t>RM08GB2998LZC014N</t>
+  </si>
+  <si>
+    <t>B9M0DH580TU8SSDJR</t>
+  </si>
+  <si>
+    <t>3A1WUKPCXKXAH6D05</t>
+  </si>
+  <si>
+    <t>41U8TLYJ6NM1SCWVX</t>
+  </si>
+  <si>
+    <t>ZFD5X0A97C6L4ZN9Z</t>
+  </si>
+  <si>
+    <t>NJN9V37T6UUY1K54A</t>
+  </si>
+  <si>
+    <t>BDHE4H1E9M0H9X67G</t>
+  </si>
+  <si>
+    <t>4WF0HF9P3EBMNLCMK</t>
+  </si>
+  <si>
+    <t>16AP4D0X4U6ZZ3JSZ</t>
+  </si>
+  <si>
+    <t>YR1GWW6T921JCBYGC</t>
+  </si>
+  <si>
+    <t>G7H6EFJK5Z4XLHWZU</t>
+  </si>
+  <si>
+    <t>UJK77LSJ1Z0V43HEX</t>
+  </si>
+  <si>
+    <t>T103LWLB75N83ZKFY</t>
+  </si>
+  <si>
+    <t>FATXUB6T4K17B5JBR</t>
+  </si>
+  <si>
+    <t>WJ50UZHW7D0KDYJ3T</t>
+  </si>
+  <si>
+    <t>0SF540P68CBD629C0</t>
+  </si>
+  <si>
+    <t>1X7AMZWL75ZCPM5SE</t>
+  </si>
+  <si>
+    <t>WRZ3AK3M6EH7A7BJ0</t>
+  </si>
+  <si>
+    <t>S894FJHP9CMC7LYCW</t>
+  </si>
+  <si>
+    <t>CV48G6HV72SZM06CX</t>
+  </si>
+  <si>
+    <t>202DA3D667FBG6H9C</t>
+  </si>
+  <si>
+    <t>02TPGEN41PKZ2C1GN</t>
+  </si>
+  <si>
+    <t>8B2T34BVXBURNJC5B</t>
+  </si>
+  <si>
+    <t>PD9YLXYKXHXCU345L</t>
+  </si>
+  <si>
+    <t>0HWEB0JH30NPDP45A</t>
+  </si>
+  <si>
+    <t>57S8X0BEXT7V1HHKX</t>
+  </si>
+  <si>
+    <t>WDPRM4N609E635MNM</t>
+  </si>
+  <si>
+    <t>JK0G4VFBX83A256LG</t>
+  </si>
+  <si>
+    <t>YYM7PK2N6C3BU4LBM</t>
+  </si>
+  <si>
+    <t>2BGBJHJX442YYL0FZ</t>
+  </si>
+  <si>
+    <t>2ZH9MAG3X6PH2N5EE</t>
+  </si>
+  <si>
+    <t>B8D12HHP51F55B9GB</t>
+  </si>
+  <si>
+    <t>53RGF9KH8ZDDV0KXR</t>
+  </si>
+  <si>
+    <t>GDKMTP0R3TYJ15GVE</t>
+  </si>
+  <si>
+    <t>CXYVVKYX4KF1HNY1Y</t>
+  </si>
+  <si>
+    <t>UA5UHK752T9PRBMTX</t>
+  </si>
+  <si>
+    <t>7JMLCVFP13CR2TZN8</t>
+  </si>
+  <si>
+    <t>0Y7YWUA2XJY8BNNPG</t>
+  </si>
+  <si>
+    <t>BPMJYD9X4A56NNBUD</t>
+  </si>
+  <si>
+    <t>JU1UWK9HXA0DKZYW3</t>
+  </si>
+  <si>
+    <t>9F8BRF77231TLAEME</t>
+  </si>
+  <si>
+    <t>49JAR1M380SAL0SAB</t>
+  </si>
+  <si>
+    <t>JEHYWPP47ARLJZKM0</t>
+  </si>
+  <si>
+    <t>E2P5TUEL9N8D7F8CG</t>
+  </si>
+  <si>
+    <t>MGM58J5P68LS4A34H</t>
+  </si>
+  <si>
+    <t>86NHD1RJ5TVGGZBD5</t>
+  </si>
+  <si>
+    <t>BYGVM9YNXPT0Y2S5W</t>
+  </si>
+  <si>
+    <t>5MTV7KTL0KVWT5812</t>
+  </si>
+  <si>
+    <t>9KJU8S5S7W070L5LV</t>
+  </si>
+  <si>
+    <t>1AERKBZ96E4FXXNHY</t>
+  </si>
+  <si>
+    <t>NEU3SG8T54TJTWBZR</t>
+  </si>
+  <si>
+    <t>W56ALFDU9JZEA8XG7</t>
+  </si>
+  <si>
+    <t>6RA9RW246ZAKCNXTG</t>
+  </si>
+  <si>
+    <t>KKET7V5U14CZ618U5</t>
+  </si>
+  <si>
+    <t>NRCTGSU73J5DJ4KEX</t>
+  </si>
+  <si>
+    <t>DE3F5F6D8AU4UD75V</t>
+  </si>
+  <si>
+    <t>1Y019B5E7WD0V2TT4</t>
+  </si>
+  <si>
+    <t>YZK2K1H28P62JXF9J</t>
+  </si>
+  <si>
+    <t>UG7LD2W972N5758P8</t>
+  </si>
+  <si>
+    <t>8RGBUYJWXNLN89K5B</t>
+  </si>
+  <si>
+    <t>T7UGR6EE5MES5SL29</t>
+  </si>
+  <si>
+    <t>6D0FHW4R2X2NDD9LR</t>
+  </si>
+  <si>
+    <t>1GV7UJMA7MB2848E4</t>
+  </si>
+  <si>
+    <t>P68GCK48XN0ED9DXE</t>
+  </si>
+  <si>
+    <t>BFBGZW8F5ZY3YN01F</t>
+  </si>
+  <si>
+    <t>5HJFSVTE6BT826BR8</t>
+  </si>
+  <si>
+    <t>WADADHN343AGU75SW</t>
+  </si>
+  <si>
+    <t>JP37RHPU8A9ALSY67</t>
+  </si>
+  <si>
+    <t>4726CEF12NY0K2U4W</t>
+  </si>
+  <si>
+    <t>MLZ1CBLC1CKENHP7W</t>
+  </si>
+  <si>
+    <t>R94Y1YZ54L2GEB75Z</t>
+  </si>
+  <si>
+    <t>0ZPYWF9C3LBW2DGUR</t>
+  </si>
+  <si>
+    <t>R6H40NEU4T8E3SJD8</t>
+  </si>
+  <si>
+    <t>X0W8KUTUXH5V4FSNT</t>
+  </si>
+  <si>
+    <t>987E0H186K7MVTWMC</t>
+  </si>
+  <si>
+    <t>P6X9P4F89XJVX49B5</t>
+  </si>
+  <si>
+    <t>30UUSEH358MUW3ZCX</t>
+  </si>
+  <si>
+    <t>1C31SHJ19RC1LZ6MN</t>
+  </si>
+  <si>
+    <t>D4LRHVF3436CEKTE7</t>
+  </si>
+  <si>
+    <t>LV4JUU3F0CHCGBKRB</t>
+  </si>
+  <si>
+    <t>H1032H267UJ3PGP7M</t>
+  </si>
+  <si>
+    <t>1WP4TFS22SPN2PHMV</t>
+  </si>
+  <si>
+    <t>FV12Z8CS99F9U21S3</t>
+  </si>
+  <si>
+    <t>81524ER47JWRG1LJ5</t>
+  </si>
+  <si>
+    <t>ZH09GRB41XCBUY5UH</t>
+  </si>
+  <si>
+    <t>UNX8J7UK4SR394FXW</t>
+  </si>
+  <si>
+    <t>SMA91A6G4CGHS27PL</t>
+  </si>
+  <si>
+    <t>F4P4T4NX1RFFFSW6C</t>
+  </si>
+  <si>
+    <t>PNGCBM515TPM8MMUT</t>
+  </si>
+  <si>
+    <t>AA6B17JD5B47B755K</t>
+  </si>
+  <si>
+    <t>HED75A537S1VDL90J</t>
+  </si>
+  <si>
+    <t>B131YBDS8YL9BNKB8</t>
+  </si>
+  <si>
+    <t>MJ8G9K676DWZAH09A</t>
+  </si>
+  <si>
+    <t>624B9AHN18TMMC9HT</t>
+  </si>
+  <si>
+    <t>BDHW01WZ29KNKJFF1</t>
+  </si>
+  <si>
+    <t>2CYS2RT4769TN7F7P</t>
+  </si>
+  <si>
+    <t>TXPEU00P32XBCNP7B</t>
+  </si>
+  <si>
+    <t>6AHMP30S96TWM5XB0</t>
+  </si>
+  <si>
+    <t>GG13ZHDN77V4RR1SZ</t>
+  </si>
+  <si>
+    <t>Z8E5EXSA1LJ6NA0GS</t>
+  </si>
+  <si>
+    <t>M2WH4XHM9R2VNHZKF</t>
+  </si>
+  <si>
+    <t>0H92FYEW7GLCHYHPS</t>
+  </si>
+  <si>
+    <t>V6JXDPMH79SPVVSC7</t>
+  </si>
+  <si>
+    <t>ZKJYUY2U68HT0C7C5</t>
+  </si>
+  <si>
+    <t>YRXVSYK287U1EDXNP</t>
+  </si>
+  <si>
+    <t>6KCT07LH92A3ABV19</t>
+  </si>
+  <si>
+    <t>W5G083P622V3CGJM5</t>
+  </si>
+  <si>
+    <t>KKYC42V9XU2SNCTZD</t>
+  </si>
+  <si>
+    <t>SUDVEZCW16BXG3AUN</t>
+  </si>
+  <si>
+    <t>BEK6UEBGX424X519D</t>
+  </si>
+  <si>
+    <t>HGBWW84J8NH07BC9H</t>
+  </si>
+  <si>
+    <t>J3LX9JTC9FJAZJ55U</t>
+  </si>
+  <si>
+    <t>TCLKKYBL9LA4P0GEU</t>
+  </si>
+  <si>
+    <t>23VH2KSJ077UVHUYK</t>
+  </si>
+  <si>
+    <t>C1PPHUK15GS43KMGM</t>
+  </si>
+  <si>
+    <t>SSF5ASND90AZN2XBE</t>
+  </si>
+  <si>
+    <t>KVSKDD784JWKE27JM</t>
+  </si>
+  <si>
+    <t>2UBYLNFW3B1121HW8</t>
+  </si>
+  <si>
+    <t>RNCXGFPJ8XPEWSRTC</t>
+  </si>
+  <si>
+    <t>1D5CP82B3NK7NRSDS</t>
+  </si>
+  <si>
+    <t>8KBTPKZJX3B0A8F4K</t>
+  </si>
+  <si>
+    <t>5KCTL02P4EGWD2FCL</t>
+  </si>
+  <si>
+    <t>6ELLG85D1X44VLLT6</t>
+  </si>
+  <si>
+    <t>URU8EY6P9N36NXADH</t>
+  </si>
+  <si>
+    <t>EBKUAHE19D3FBC3YR</t>
+  </si>
+  <si>
+    <t>YY3S8D078NM0GPA7R</t>
+  </si>
+  <si>
+    <t>BC93NWYR1NBMMBFU5</t>
+  </si>
+  <si>
+    <t>WJYSG3S324FG716B2</t>
+  </si>
+  <si>
+    <t>5CJLUSHR0ZB7WC1N7</t>
+  </si>
+  <si>
+    <t>8DMF9L240Y708RKL0</t>
+  </si>
+  <si>
+    <t>Y0XWH8A70UK5AUF4Y</t>
+  </si>
+  <si>
+    <t>A0YUPU9B5FHXF4SMK</t>
+  </si>
+  <si>
+    <t>BN0S9YKK0NS8S0JC5</t>
+  </si>
+  <si>
+    <t>ECXBE6MV7FJUM7HH0</t>
+  </si>
+  <si>
+    <t>2NZHT5S77N0FZNRLF</t>
+  </si>
+  <si>
+    <t>TU59JFZ28JR7YSH2J</t>
+  </si>
+  <si>
+    <t>EMFD87HC16F6SXG5L</t>
+  </si>
+  <si>
+    <t>NE4C0FCS7GMSA7CJG</t>
+  </si>
+  <si>
+    <t>SFSLBH4H9XZKX5RCY</t>
+  </si>
+  <si>
+    <t>WHJ2263M2JRVA624W</t>
+  </si>
+  <si>
+    <t>8G4F72J01YDHPM9KZ</t>
+  </si>
+  <si>
+    <t>NX09NP8V6M5510YFH</t>
+  </si>
+  <si>
+    <t>1B77Z7CZ7NN6M9VPA</t>
+  </si>
+  <si>
+    <t>1LKKMP1G1EY6GNT09</t>
+  </si>
+  <si>
+    <t>L9XYUPXG6WVREM4VC</t>
+  </si>
+  <si>
+    <t>PB3NC27T2BN77SYJZ</t>
+  </si>
+  <si>
+    <t>VHDG28U81HB2W7D5T</t>
+  </si>
+  <si>
+    <t>V0JD7G5V84CD0TH3D</t>
+  </si>
+  <si>
+    <t>S85Z4SDB5VHV9V2C4</t>
+  </si>
+  <si>
+    <t>7KCLFYPY1TAZ5JB6K</t>
+  </si>
+  <si>
+    <t>HF30JRPE9JW5F0LFT</t>
+  </si>
+  <si>
+    <t>CSCZP9H10VM3S2SBG</t>
+  </si>
+  <si>
+    <t>4MKY5CAC1186NNB7G</t>
+  </si>
+  <si>
+    <t>ULP58J10779FRPJT0</t>
+  </si>
+  <si>
+    <t>9HYHJD402FJ002TV2</t>
+  </si>
+  <si>
+    <t>3NRG52FE7RH8HSNKP</t>
+  </si>
+  <si>
+    <t>B5RDMY8434V20ZZJK</t>
+  </si>
+  <si>
+    <t>Katherine Anderson</t>
+  </si>
+  <si>
+    <t>Samuel Johnson</t>
+  </si>
+  <si>
+    <t>Sheri Humphrey</t>
+  </si>
+  <si>
+    <t>Karla Stephenson</t>
+  </si>
+  <si>
+    <t>Christopher Bruce</t>
+  </si>
+  <si>
+    <t>Jennifer Sandoval</t>
+  </si>
+  <si>
+    <t>Jessica Evans</t>
+  </si>
+  <si>
+    <t>Amber Tapia</t>
+  </si>
+  <si>
+    <t>William Robinson</t>
+  </si>
+  <si>
+    <t>Michael Perez</t>
+  </si>
+  <si>
+    <t>Edward George</t>
+  </si>
+  <si>
+    <t>Stephanie Carr</t>
   </si>
   <si>
     <t>Lisa Brown</t>
   </si>
   <si>
-    <t>Marc Church</t>
-  </si>
-  <si>
-    <t>Jennifer Gaines DVM</t>
-  </si>
-  <si>
-    <t>Theresa Reed</t>
-  </si>
-  <si>
-    <t>Benjamin Riley</t>
-  </si>
-  <si>
-    <t>Rachel Caldwell</t>
-  </si>
-  <si>
-    <t>Michael Patterson</t>
-  </si>
-  <si>
-    <t>Rebecca Gentry</t>
-  </si>
-  <si>
-    <t>John Patel</t>
-  </si>
-  <si>
-    <t>Jason Ferguson</t>
-  </si>
-  <si>
-    <t>Alexander Evans</t>
-  </si>
-  <si>
-    <t>Ryan Yates</t>
-  </si>
-  <si>
-    <t>Amy Mahoney</t>
-  </si>
-  <si>
-    <t>Zachary Welch</t>
-  </si>
-  <si>
-    <t>Brian Foster</t>
-  </si>
-  <si>
-    <t>Lisa Aguilar</t>
-  </si>
-  <si>
-    <t>Michaela Thomas</t>
-  </si>
-  <si>
-    <t>Robert Roman DDS</t>
-  </si>
-  <si>
-    <t>Daniel Avila</t>
-  </si>
-  <si>
-    <t>Gary Mason</t>
-  </si>
-  <si>
-    <t>Eric Watson</t>
-  </si>
-  <si>
-    <t>Jenny Baker</t>
-  </si>
-  <si>
-    <t>Charles Chase</t>
-  </si>
-  <si>
-    <t>Theresa Roberts</t>
-  </si>
-  <si>
-    <t>Christopher Martin</t>
-  </si>
-  <si>
-    <t>Billy Li</t>
-  </si>
-  <si>
-    <t>Roger Hill</t>
-  </si>
-  <si>
-    <t>Ashley Whitney</t>
-  </si>
-  <si>
-    <t>Aaron Serrano</t>
-  </si>
-  <si>
-    <t>Kathryn Mitchell</t>
-  </si>
-  <si>
-    <t>Yolanda Singh</t>
-  </si>
-  <si>
-    <t>Jamie Barnes</t>
-  </si>
-  <si>
-    <t>Shelia Gray</t>
-  </si>
-  <si>
-    <t>Trevor Jenkins</t>
-  </si>
-  <si>
-    <t>Christie Alvarez</t>
-  </si>
-  <si>
-    <t>Dr. Maria Fuller</t>
-  </si>
-  <si>
-    <t>Dawn Thomas</t>
-  </si>
-  <si>
-    <t>Timothy Lee</t>
-  </si>
-  <si>
-    <t>Eric Jones</t>
-  </si>
-  <si>
-    <t>Melissa Jones</t>
-  </si>
-  <si>
-    <t>David Frey</t>
-  </si>
-  <si>
-    <t>Tara Fuller</t>
-  </si>
-  <si>
-    <t>Amy Reed</t>
-  </si>
-  <si>
-    <t>Steven Robinson</t>
-  </si>
-  <si>
-    <t>Laurie Miller</t>
-  </si>
-  <si>
-    <t>Robert Ortega</t>
-  </si>
-  <si>
-    <t>Robert Rowe</t>
-  </si>
-  <si>
-    <t>Michael Wagner</t>
-  </si>
-  <si>
-    <t>Joseph Rojas</t>
-  </si>
-  <si>
-    <t>Shannon Jackson</t>
-  </si>
-  <si>
-    <t>Mary Boone</t>
-  </si>
-  <si>
-    <t>Angela Macdonald</t>
-  </si>
-  <si>
-    <t>Kelly Bartlett</t>
-  </si>
-  <si>
-    <t>Chase Jones</t>
-  </si>
-  <si>
-    <t>Pamela King</t>
-  </si>
-  <si>
-    <t>Adam Warren</t>
-  </si>
-  <si>
-    <t>Stephanie Guzman</t>
-  </si>
-  <si>
-    <t>Caroline Donaldson</t>
-  </si>
-  <si>
-    <t>Mr. Michael Meyers Jr.</t>
-  </si>
-  <si>
-    <t>Amanda Aguilar</t>
-  </si>
-  <si>
-    <t>Mrs. Danielle Livingston</t>
-  </si>
-  <si>
-    <t>Jenna Blackburn</t>
-  </si>
-  <si>
-    <t>Jennifer Campbell</t>
-  </si>
-  <si>
-    <t>Marcus Parks</t>
-  </si>
-  <si>
-    <t>Jennifer Johnson</t>
-  </si>
-  <si>
-    <t>Timothy Barry</t>
-  </si>
-  <si>
-    <t>Brendan Wood</t>
-  </si>
-  <si>
-    <t>Ronald Monroe</t>
-  </si>
-  <si>
-    <t>Joy Smith</t>
-  </si>
-  <si>
-    <t>Megan Farmer</t>
-  </si>
-  <si>
-    <t>Mr. James Dean</t>
-  </si>
-  <si>
-    <t>Jason Brandt</t>
-  </si>
-  <si>
-    <t>Shawn Hayes</t>
-  </si>
-  <si>
-    <t>Sarah Campbell</t>
-  </si>
-  <si>
-    <t>Michele Mckay</t>
-  </si>
-  <si>
-    <t>Brian Lee</t>
-  </si>
-  <si>
-    <t>Robert Russell</t>
-  </si>
-  <si>
-    <t>Jay Mcguire</t>
-  </si>
-  <si>
-    <t>Julia Foster</t>
-  </si>
-  <si>
-    <t>Krista Lane</t>
-  </si>
-  <si>
-    <t>Paula Robinson</t>
-  </si>
-  <si>
-    <t>Matthew Smith</t>
-  </si>
-  <si>
-    <t>Brandon Brooks</t>
-  </si>
-  <si>
-    <t>Amanda Perez</t>
-  </si>
-  <si>
-    <t>Melissa Oconnell</t>
-  </si>
-  <si>
-    <t>Joan Rice</t>
-  </si>
-  <si>
-    <t>Wesley Levine</t>
-  </si>
-  <si>
-    <t>Beth Robinson</t>
-  </si>
-  <si>
-    <t>Brent Elliott</t>
-  </si>
-  <si>
-    <t>Melissa Barker</t>
-  </si>
-  <si>
-    <t>Mario Fleming</t>
-  </si>
-  <si>
-    <t>Dominique Vasquez</t>
-  </si>
-  <si>
-    <t>Lance Jackson</t>
-  </si>
-  <si>
-    <t>Julia Williams</t>
-  </si>
-  <si>
-    <t>Ruben Ross</t>
-  </si>
-  <si>
-    <t>Sean Fernandez</t>
-  </si>
-  <si>
-    <t>Crystal Harris</t>
-  </si>
-  <si>
-    <t>Amber Davis</t>
-  </si>
-  <si>
-    <t>Stephen Baldwin</t>
-  </si>
-  <si>
-    <t>Kathy Williams</t>
-  </si>
-  <si>
-    <t>Latoya Kerr</t>
-  </si>
-  <si>
-    <t>Larry Ramos</t>
-  </si>
-  <si>
-    <t>Evan Pierce</t>
-  </si>
-  <si>
-    <t>Anna Sanders</t>
-  </si>
-  <si>
-    <t>David Mcclain</t>
-  </si>
-  <si>
-    <t>Dawn Bailey</t>
-  </si>
-  <si>
-    <t>Melissa Green</t>
-  </si>
-  <si>
-    <t>Anna Ford</t>
-  </si>
-  <si>
-    <t>Beth Martinez</t>
-  </si>
-  <si>
-    <t>Rachel Smith</t>
-  </si>
-  <si>
-    <t>Barbara Howard</t>
-  </si>
-  <si>
-    <t>Ricky Hahn</t>
-  </si>
-  <si>
-    <t>Destiny Greene</t>
-  </si>
-  <si>
-    <t>Matthew Bradley</t>
-  </si>
-  <si>
-    <t>Kristy White</t>
-  </si>
-  <si>
-    <t>Daniel Miller</t>
-  </si>
-  <si>
-    <t>Patricia Chang</t>
-  </si>
-  <si>
-    <t>Jessica Haas</t>
-  </si>
-  <si>
-    <t>Kenneth Jones</t>
-  </si>
-  <si>
-    <t>Mark Morgan</t>
-  </si>
-  <si>
-    <t>John Ellis</t>
-  </si>
-  <si>
-    <t>Holly Steele</t>
-  </si>
-  <si>
-    <t>Randy Mcdonald</t>
-  </si>
-  <si>
-    <t>Renee Hinton</t>
-  </si>
-  <si>
-    <t>Shannon Hunt</t>
-  </si>
-  <si>
-    <t>Kenneth Marquez</t>
-  </si>
-  <si>
-    <t>Rebecca Simmons</t>
-  </si>
-  <si>
-    <t>Frank Morrison</t>
-  </si>
-  <si>
-    <t>Michael Wolf</t>
-  </si>
-  <si>
-    <t>Carla Bryan</t>
-  </si>
-  <si>
-    <t>Clifford Ortiz</t>
-  </si>
-  <si>
-    <t>Janice Washington</t>
-  </si>
-  <si>
-    <t>John Baker</t>
-  </si>
-  <si>
-    <t>Lisa Salas</t>
-  </si>
-  <si>
-    <t>Taylor Gomez</t>
-  </si>
-  <si>
-    <t>William Flores</t>
-  </si>
-  <si>
-    <t>Cheryl Carr</t>
-  </si>
-  <si>
-    <t>Benjamin Martinez</t>
-  </si>
-  <si>
-    <t>Mr. Michael Pitts Jr.</t>
-  </si>
-  <si>
-    <t>Jessica Wilson</t>
-  </si>
-  <si>
-    <t>Amy Carson</t>
-  </si>
-  <si>
-    <t>Joshua Duncan</t>
-  </si>
-  <si>
-    <t>Sarah Garza</t>
-  </si>
-  <si>
-    <t>David Santana</t>
-  </si>
-  <si>
-    <t>Janice Werner</t>
-  </si>
-  <si>
-    <t>Christian Porter Jr.</t>
-  </si>
-  <si>
-    <t>Pamela Brooks</t>
-  </si>
-  <si>
-    <t>Brian Owens</t>
-  </si>
-  <si>
-    <t>Donald Adams</t>
-  </si>
-  <si>
-    <t>Lisa Jennings</t>
-  </si>
-  <si>
-    <t>Morgan Jackson</t>
-  </si>
-  <si>
-    <t>Chad Hudson</t>
-  </si>
-  <si>
-    <t>Samantha Mitchell</t>
-  </si>
-  <si>
-    <t>Gregory Gray MD</t>
-  </si>
-  <si>
-    <t>Carmen Flores</t>
-  </si>
-  <si>
-    <t>Christopher Cervantes</t>
-  </si>
-  <si>
-    <t>Casey Brown</t>
-  </si>
-  <si>
-    <t>Kaitlyn Johnson</t>
-  </si>
-  <si>
-    <t>Julie Garza</t>
+    <t>Timothy Reed</t>
+  </si>
+  <si>
+    <t>Julia Vargas</t>
+  </si>
+  <si>
+    <t>Carol Torres</t>
+  </si>
+  <si>
+    <t>Jamie Kirby</t>
+  </si>
+  <si>
+    <t>Michelle Walker</t>
+  </si>
+  <si>
+    <t>David Carpenter</t>
+  </si>
+  <si>
+    <t>Timothy Chen</t>
+  </si>
+  <si>
+    <t>Dr. Nichole Thomas</t>
+  </si>
+  <si>
+    <t>Barbara Peck</t>
+  </si>
+  <si>
+    <t>Andrea Miller</t>
+  </si>
+  <si>
+    <t>Mrs. Sarah Garner</t>
+  </si>
+  <si>
+    <t>Kari Gray</t>
+  </si>
+  <si>
+    <t>Dominique Wells</t>
+  </si>
+  <si>
+    <t>Megan Solis</t>
+  </si>
+  <si>
+    <t>Erica Sherman</t>
+  </si>
+  <si>
+    <t>Carlos Walls</t>
+  </si>
+  <si>
+    <t>Mark Arellano</t>
+  </si>
+  <si>
+    <t>Brian Steele</t>
+  </si>
+  <si>
+    <t>Jeffrey Smith</t>
+  </si>
+  <si>
+    <t>Matthew Carlson</t>
+  </si>
+  <si>
+    <t>Elizabeth Figueroa</t>
+  </si>
+  <si>
+    <t>Gina Morse</t>
+  </si>
+  <si>
+    <t>Rebecca Perez</t>
+  </si>
+  <si>
+    <t>Elizabeth Watkins</t>
+  </si>
+  <si>
+    <t>Melissa Mcdaniel</t>
+  </si>
+  <si>
+    <t>Lisa Ramirez</t>
+  </si>
+  <si>
+    <t>Joseph Bell</t>
+  </si>
+  <si>
+    <t>William Jones</t>
+  </si>
+  <si>
+    <t>Angela Foster</t>
+  </si>
+  <si>
+    <t>William Morgan</t>
+  </si>
+  <si>
+    <t>David Wilson</t>
+  </si>
+  <si>
+    <t>Mitchell Rogers</t>
+  </si>
+  <si>
+    <t>Claire Chang</t>
+  </si>
+  <si>
+    <t>Crystal Allen</t>
+  </si>
+  <si>
+    <t>Brittany Gaines</t>
+  </si>
+  <si>
+    <t>Emily Gallagher</t>
+  </si>
+  <si>
+    <t>Dean Butler</t>
+  </si>
+  <si>
+    <t>Maria Watson</t>
+  </si>
+  <si>
+    <t>Jacqueline Velazquez</t>
+  </si>
+  <si>
+    <t>Christina Gordon</t>
+  </si>
+  <si>
+    <t>Jeff Andrews</t>
+  </si>
+  <si>
+    <t>Catherine Buchanan</t>
+  </si>
+  <si>
+    <t>James Perez</t>
+  </si>
+  <si>
+    <t>Tiffany Martin</t>
+  </si>
+  <si>
+    <t>Jose Davis</t>
+  </si>
+  <si>
+    <t>Victoria Miller</t>
+  </si>
+  <si>
+    <t>Marvin Larson</t>
+  </si>
+  <si>
+    <t>Brandon Hill</t>
+  </si>
+  <si>
+    <t>Joshua Reeves</t>
+  </si>
+  <si>
+    <t>Nicholas Burton</t>
+  </si>
+  <si>
+    <t>Stanley Bell</t>
+  </si>
+  <si>
+    <t>Christine Powell</t>
+  </si>
+  <si>
+    <t>Sean Ramirez</t>
+  </si>
+  <si>
+    <t>Nicholas Robertson</t>
+  </si>
+  <si>
+    <t>Alexis Vang</t>
+  </si>
+  <si>
+    <t>Francisco Luna</t>
+  </si>
+  <si>
+    <t>Jessica Nguyen</t>
+  </si>
+  <si>
+    <t>Debra Nelson</t>
+  </si>
+  <si>
+    <t>Melissa Howard</t>
+  </si>
+  <si>
+    <t>Stacy Johnson</t>
+  </si>
+  <si>
+    <t>David Jones</t>
+  </si>
+  <si>
+    <t>Sabrina Delgado</t>
+  </si>
+  <si>
+    <t>Abigail Beard</t>
+  </si>
+  <si>
+    <t>Shelly Harris</t>
+  </si>
+  <si>
+    <t>Terry Lawson</t>
+  </si>
+  <si>
+    <t>Michael Mora</t>
+  </si>
+  <si>
+    <t>Dennis Webb</t>
+  </si>
+  <si>
+    <t>Stephen Perez</t>
+  </si>
+  <si>
+    <t>Daniel Finley</t>
+  </si>
+  <si>
+    <t>Madison Duncan</t>
+  </si>
+  <si>
+    <t>Jennifer Carr</t>
+  </si>
+  <si>
+    <t>Brendan Sandoval</t>
+  </si>
+  <si>
+    <t>Tracy Rios</t>
+  </si>
+  <si>
+    <t>Michael Reid</t>
+  </si>
+  <si>
+    <t>Brittany Russell</t>
+  </si>
+  <si>
+    <t>Elaine Bell</t>
+  </si>
+  <si>
+    <t>Courtney Turner</t>
+  </si>
+  <si>
+    <t>Amanda Campos</t>
+  </si>
+  <si>
+    <t>Christopher Mason</t>
+  </si>
+  <si>
+    <t>Christopher Yu</t>
+  </si>
+  <si>
+    <t>Dillon Aguirre</t>
+  </si>
+  <si>
+    <t>Andrew Clay</t>
+  </si>
+  <si>
+    <t>Theresa Reynolds</t>
+  </si>
+  <si>
+    <t>Jennifer Thomas</t>
+  </si>
+  <si>
+    <t>Brittany Wilson</t>
+  </si>
+  <si>
+    <t>Melissa Armstrong</t>
+  </si>
+  <si>
+    <t>Jeremy Mcgee</t>
+  </si>
+  <si>
+    <t>Paula Wyatt</t>
+  </si>
+  <si>
+    <t>Ricky Ellis</t>
+  </si>
+  <si>
+    <t>Mr. Christopher Taylor</t>
+  </si>
+  <si>
+    <t>Kristen Harris</t>
+  </si>
+  <si>
+    <t>Elaine Torres</t>
+  </si>
+  <si>
+    <t>Troy Barry</t>
+  </si>
+  <si>
+    <t>Bobby Cooper</t>
+  </si>
+  <si>
+    <t>Samuel Martinez</t>
+  </si>
+  <si>
+    <t>Martin Edwards</t>
+  </si>
+  <si>
+    <t>Peter Lopez</t>
+  </si>
+  <si>
+    <t>Matthew Page</t>
+  </si>
+  <si>
+    <t>Katherine Gardner</t>
+  </si>
+  <si>
+    <t>Lisa Young</t>
+  </si>
+  <si>
+    <t>Jason Johnson</t>
+  </si>
+  <si>
+    <t>Tonya Hart</t>
+  </si>
+  <si>
+    <t>Diamond James</t>
+  </si>
+  <si>
+    <t>Misty Lucas</t>
+  </si>
+  <si>
+    <t>Morgan Sanchez</t>
+  </si>
+  <si>
+    <t>Heather Leonard</t>
+  </si>
+  <si>
+    <t>Christine Cook</t>
+  </si>
+  <si>
+    <t>Rachel Rodriguez</t>
+  </si>
+  <si>
+    <t>Garrett Snyder</t>
+  </si>
+  <si>
+    <t>Benjamin Davidson</t>
+  </si>
+  <si>
+    <t>Aaron Brooks</t>
+  </si>
+  <si>
+    <t>Caitlin Jensen</t>
+  </si>
+  <si>
+    <t>Valerie Thompson</t>
+  </si>
+  <si>
+    <t>Antonio Bishop</t>
+  </si>
+  <si>
+    <t>Peggy Shaffer</t>
+  </si>
+  <si>
+    <t>David Thompson</t>
+  </si>
+  <si>
+    <t>Sophia Gonzalez</t>
+  </si>
+  <si>
+    <t>Madison Buckley</t>
+  </si>
+  <si>
+    <t>Leroy Jones</t>
+  </si>
+  <si>
+    <t>Janice Hughes</t>
+  </si>
+  <si>
+    <t>Shawn Porter</t>
+  </si>
+  <si>
+    <t>Stephanie Allen</t>
+  </si>
+  <si>
+    <t>Sue Galvan</t>
+  </si>
+  <si>
+    <t>Michael Russell</t>
+  </si>
+  <si>
+    <t>Ms. Amanda Morris</t>
+  </si>
+  <si>
+    <t>Julie Wood</t>
+  </si>
+  <si>
+    <t>Stacy Brown</t>
+  </si>
+  <si>
+    <t>Ian Myers</t>
+  </si>
+  <si>
+    <t>Mark Holmes</t>
+  </si>
+  <si>
+    <t>Anthony Thomas</t>
+  </si>
+  <si>
+    <t>Sarah Hayes</t>
+  </si>
+  <si>
+    <t>Noah Nelson</t>
   </si>
   <si>
     <t>Erin Jones</t>
   </si>
   <si>
-    <t>Robert Webb</t>
-  </si>
-  <si>
-    <t>Rachel Brooks</t>
-  </si>
-  <si>
-    <t>Jordan Fox</t>
-  </si>
-  <si>
-    <t>Brandy Blackwell</t>
+    <t>Jeffrey Castro</t>
+  </si>
+  <si>
+    <t>Benjamin Pacheco</t>
+  </si>
+  <si>
+    <t>Marcus Hill</t>
+  </si>
+  <si>
+    <t>Dylan Potter</t>
+  </si>
+  <si>
+    <t>Taylor Warner</t>
+  </si>
+  <si>
+    <t>Victor Bauer DVM</t>
+  </si>
+  <si>
+    <t>Bryan Goodwin</t>
+  </si>
+  <si>
+    <t>Dana Page</t>
+  </si>
+  <si>
+    <t>Amanda Simpson</t>
+  </si>
+  <si>
+    <t>Robert Martinez</t>
+  </si>
+  <si>
+    <t>Antonio Griffin</t>
+  </si>
+  <si>
+    <t>Lindsey Peterson</t>
+  </si>
+  <si>
+    <t>Danielle Robinson</t>
+  </si>
+  <si>
+    <t>Michael Cole</t>
+  </si>
+  <si>
+    <t>Lisa Williams</t>
+  </si>
+  <si>
+    <t>Nancy Cooley</t>
+  </si>
+  <si>
+    <t>Alicia Thomas</t>
+  </si>
+  <si>
+    <t>Autumn Reese</t>
+  </si>
+  <si>
+    <t>Michele Fitzpatrick</t>
+  </si>
+  <si>
+    <t>Rebecca Kelley</t>
+  </si>
+  <si>
+    <t>Dawn Boyd</t>
+  </si>
+  <si>
+    <t>Mary Barry</t>
+  </si>
+  <si>
+    <t>Nicole Wagner</t>
+  </si>
+  <si>
+    <t>Evelyn Lee</t>
+  </si>
+  <si>
+    <t>Natalie Diaz</t>
+  </si>
+  <si>
+    <t>Earl Olson</t>
+  </si>
+  <si>
+    <t>Thomas Kline</t>
+  </si>
+  <si>
+    <t>Amber Hartman</t>
+  </si>
+  <si>
+    <t>Matthew Brown</t>
+  </si>
+  <si>
+    <t>Christy Perry</t>
+  </si>
+  <si>
+    <t>Katie Rice</t>
+  </si>
+  <si>
+    <t>James Martinez</t>
+  </si>
+  <si>
+    <t>Ashley Bowers</t>
+  </si>
+  <si>
+    <t>Michael Dickerson</t>
+  </si>
+  <si>
+    <t>Robert Morris</t>
+  </si>
+  <si>
+    <t>Melissa Martinez</t>
+  </si>
+  <si>
+    <t>Alan Carr</t>
+  </si>
+  <si>
+    <t>Amanda Jones</t>
+  </si>
+  <si>
+    <t>Kelsey Gaines</t>
+  </si>
+  <si>
+    <t>Anthony Phillips</t>
+  </si>
+  <si>
+    <t>Eric Smith</t>
+  </si>
+  <si>
+    <t>Steven Lawrence</t>
+  </si>
+  <si>
+    <t>Anthony Todd</t>
+  </si>
+  <si>
+    <t>Marcus Sharp</t>
+  </si>
+  <si>
+    <t>Mr. Jonathon Stanley</t>
+  </si>
+  <si>
+    <t>Christina Wallace</t>
+  </si>
+  <si>
+    <t>Joseph Hernandez</t>
+  </si>
+  <si>
+    <t>Christopher Jimenez</t>
+  </si>
+  <si>
+    <t>Samuel Atkinson</t>
+  </si>
+  <si>
+    <t>William Thomas</t>
+  </si>
+  <si>
+    <t>Austin Scott</t>
   </si>
   <si>
     <t>SSE</t>
@@ -1721,7 +1694,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F203"/>
+  <dimension ref="A1:F198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1758,13 +1731,13 @@
         <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="E2" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="F2">
-        <v>527434</v>
+        <v>110773</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1778,13 +1751,10 @@
         <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E3" t="s">
-        <v>449</v>
-      </c>
-      <c r="F3">
-        <v>880425</v>
+        <v>440</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1798,13 +1768,10 @@
         <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="E4" t="s">
-        <v>449</v>
-      </c>
-      <c r="F4">
-        <v>959460</v>
+        <v>440</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1818,13 +1785,10 @@
         <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="E5" t="s">
-        <v>449</v>
-      </c>
-      <c r="F5">
-        <v>961584</v>
+        <v>440</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1838,13 +1802,10 @@
         <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="E6" t="s">
-        <v>449</v>
-      </c>
-      <c r="F6">
-        <v>854195</v>
+        <v>440</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1858,10 +1819,10 @@
         <v>51</v>
       </c>
       <c r="D7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="E7" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1875,27 +1836,27 @@
         <v>52</v>
       </c>
       <c r="D8" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="E8" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
         <v>53</v>
       </c>
       <c r="D9" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="E9" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1909,10 +1870,10 @@
         <v>54</v>
       </c>
       <c r="D10" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="E10" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1926,10 +1887,10 @@
         <v>55</v>
       </c>
       <c r="D11" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="E11" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1943,10 +1904,10 @@
         <v>56</v>
       </c>
       <c r="D12" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="E12" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1960,10 +1921,10 @@
         <v>57</v>
       </c>
       <c r="D13" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="E13" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1977,10 +1938,10 @@
         <v>58</v>
       </c>
       <c r="D14" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="E14" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1994,10 +1955,10 @@
         <v>59</v>
       </c>
       <c r="D15" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E15" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2011,95 +1972,95 @@
         <v>60</v>
       </c>
       <c r="D16" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="E16" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
         <v>61</v>
       </c>
       <c r="D17" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="E17" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
         <v>62</v>
       </c>
       <c r="D18" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="E18" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
         <v>63</v>
       </c>
       <c r="D19" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E19" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
         <v>64</v>
       </c>
       <c r="D20" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E20" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
         <v>65</v>
       </c>
       <c r="D21" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="E21" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2113,10 +2074,10 @@
         <v>66</v>
       </c>
       <c r="D22" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="E22" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2130,10 +2091,10 @@
         <v>67</v>
       </c>
       <c r="D23" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="E23" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2147,10 +2108,10 @@
         <v>68</v>
       </c>
       <c r="D24" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="E24" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2164,10 +2125,10 @@
         <v>69</v>
       </c>
       <c r="D25" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="E25" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2181,146 +2142,146 @@
         <v>70</v>
       </c>
       <c r="D26" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="E26" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C27" t="s">
         <v>71</v>
       </c>
       <c r="D27" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="E27" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C28" t="s">
         <v>72</v>
       </c>
       <c r="D28" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="E28" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C29" t="s">
         <v>73</v>
       </c>
       <c r="D29" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="E29" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C30" t="s">
         <v>74</v>
       </c>
       <c r="D30" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="E30" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C31" t="s">
         <v>75</v>
       </c>
       <c r="D31" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="E31" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C32" t="s">
         <v>76</v>
       </c>
       <c r="D32" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="E32" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C33" t="s">
         <v>77</v>
       </c>
       <c r="D33" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="E33" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C34" t="s">
         <v>78</v>
       </c>
       <c r="D34" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="E34" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2334,10 +2295,10 @@
         <v>79</v>
       </c>
       <c r="D35" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="E35" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2351,10 +2312,10 @@
         <v>80</v>
       </c>
       <c r="D36" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="E36" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2368,10 +2329,10 @@
         <v>81</v>
       </c>
       <c r="D37" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="E37" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2385,10 +2346,10 @@
         <v>82</v>
       </c>
       <c r="D38" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="E38" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2402,265 +2363,265 @@
         <v>83</v>
       </c>
       <c r="D39" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E39" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C40" t="s">
         <v>84</v>
       </c>
       <c r="D40" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="E40" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C41" t="s">
         <v>85</v>
       </c>
       <c r="D41" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="E41" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C42" t="s">
         <v>86</v>
       </c>
       <c r="D42" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="E42" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C43" t="s">
         <v>87</v>
       </c>
       <c r="D43" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="E43" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B44" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C44" t="s">
         <v>88</v>
       </c>
       <c r="D44" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E44" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C45" t="s">
         <v>89</v>
       </c>
       <c r="D45" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E45" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C46" t="s">
         <v>90</v>
       </c>
       <c r="D46" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E46" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B47" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C47" t="s">
         <v>91</v>
       </c>
       <c r="D47" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E47" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B48" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C48" t="s">
         <v>92</v>
       </c>
       <c r="D48" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="E48" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B49" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C49" t="s">
         <v>93</v>
       </c>
       <c r="D49" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="E49" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B50" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C50" t="s">
         <v>94</v>
       </c>
       <c r="D50" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="E50" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C51" t="s">
         <v>95</v>
       </c>
       <c r="D51" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="E51" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B52" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C52" t="s">
         <v>96</v>
       </c>
       <c r="D52" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="E52" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B53" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C53" t="s">
         <v>97</v>
       </c>
       <c r="D53" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="E53" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B54" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C54" t="s">
         <v>98</v>
       </c>
       <c r="D54" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="E54" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2674,10 +2635,10 @@
         <v>99</v>
       </c>
       <c r="D55" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="E55" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2691,10 +2652,10 @@
         <v>100</v>
       </c>
       <c r="D56" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="E56" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2708,333 +2669,333 @@
         <v>101</v>
       </c>
       <c r="D57" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E57" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B58" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C58" t="s">
         <v>102</v>
       </c>
       <c r="D58" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="E58" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B59" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C59" t="s">
         <v>103</v>
       </c>
       <c r="D59" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="E59" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C60" t="s">
         <v>104</v>
       </c>
       <c r="D60" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="E60" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C61" t="s">
         <v>105</v>
       </c>
       <c r="D61" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="E61" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C62" t="s">
         <v>106</v>
       </c>
       <c r="D62" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="E62" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B63" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C63" t="s">
         <v>107</v>
       </c>
       <c r="D63" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="E63" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B64" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C64" t="s">
         <v>108</v>
       </c>
       <c r="D64" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="E64" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C65" t="s">
         <v>109</v>
       </c>
       <c r="D65" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="E65" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B66" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C66" t="s">
         <v>110</v>
       </c>
       <c r="D66" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="E66" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B67" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C67" t="s">
         <v>111</v>
       </c>
       <c r="D67" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="E67" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B68" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C68" t="s">
         <v>112</v>
       </c>
       <c r="D68" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="E68" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B69" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C69" t="s">
         <v>113</v>
       </c>
       <c r="D69" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E69" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B70" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C70" t="s">
         <v>114</v>
       </c>
       <c r="D70" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="E70" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B71" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C71" t="s">
         <v>115</v>
       </c>
       <c r="D71" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="E71" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B72" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C72" t="s">
         <v>116</v>
       </c>
       <c r="D72" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E72" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B73" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C73" t="s">
         <v>117</v>
       </c>
       <c r="D73" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="E73" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B74" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C74" t="s">
         <v>118</v>
       </c>
       <c r="D74" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="E74" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B75" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C75" t="s">
         <v>119</v>
       </c>
       <c r="D75" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="E75" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B76" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C76" t="s">
         <v>120</v>
       </c>
       <c r="D76" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="E76" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -3048,10 +3009,10 @@
         <v>121</v>
       </c>
       <c r="D77" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="E77" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -3065,61 +3026,61 @@
         <v>122</v>
       </c>
       <c r="D78" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="E78" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C79" t="s">
         <v>123</v>
       </c>
       <c r="D79" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="E79" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B80" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C80" t="s">
         <v>124</v>
       </c>
       <c r="D80" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="E80" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B81" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C81" t="s">
         <v>125</v>
       </c>
       <c r="D81" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="E81" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -3133,10 +3094,10 @@
         <v>126</v>
       </c>
       <c r="D82" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="E82" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -3150,10 +3111,10 @@
         <v>127</v>
       </c>
       <c r="D83" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="E83" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -3167,10 +3128,10 @@
         <v>128</v>
       </c>
       <c r="D84" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="E84" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -3184,10 +3145,10 @@
         <v>129</v>
       </c>
       <c r="D85" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="E85" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -3201,10 +3162,10 @@
         <v>130</v>
       </c>
       <c r="D86" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="E86" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -3218,61 +3179,61 @@
         <v>131</v>
       </c>
       <c r="D87" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E87" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B88" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C88" t="s">
         <v>132</v>
       </c>
       <c r="D88" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="E88" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B89" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C89" t="s">
         <v>133</v>
       </c>
       <c r="D89" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="E89" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B90" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C90" t="s">
         <v>134</v>
       </c>
       <c r="D90" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="E90" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -3286,10 +3247,10 @@
         <v>135</v>
       </c>
       <c r="D91" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="E91" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -3303,10 +3264,10 @@
         <v>136</v>
       </c>
       <c r="D92" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="E92" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -3320,10 +3281,10 @@
         <v>137</v>
       </c>
       <c r="D93" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E93" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -3337,10 +3298,10 @@
         <v>138</v>
       </c>
       <c r="D94" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="E94" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -3354,10 +3315,10 @@
         <v>139</v>
       </c>
       <c r="D95" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E95" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -3371,10 +3332,10 @@
         <v>140</v>
       </c>
       <c r="D96" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="E96" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -3388,10 +3349,10 @@
         <v>141</v>
       </c>
       <c r="D97" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="E97" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -3405,10 +3366,10 @@
         <v>142</v>
       </c>
       <c r="D98" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="E98" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -3422,10 +3383,10 @@
         <v>143</v>
       </c>
       <c r="D99" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E99" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -3439,44 +3400,44 @@
         <v>144</v>
       </c>
       <c r="D100" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="E100" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B101" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C101" t="s">
         <v>145</v>
       </c>
       <c r="D101" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="E101" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B102" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C102" t="s">
         <v>146</v>
       </c>
       <c r="D102" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="E102" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -3490,10 +3451,10 @@
         <v>147</v>
       </c>
       <c r="D103" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="E103" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -3507,10 +3468,10 @@
         <v>148</v>
       </c>
       <c r="D104" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="E104" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -3524,10 +3485,10 @@
         <v>149</v>
       </c>
       <c r="D105" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E105" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -3541,10 +3502,10 @@
         <v>150</v>
       </c>
       <c r="D106" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E106" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -3558,10 +3519,10 @@
         <v>151</v>
       </c>
       <c r="D107" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E107" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -3575,61 +3536,61 @@
         <v>152</v>
       </c>
       <c r="D108" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="E108" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B109" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C109" t="s">
         <v>153</v>
       </c>
       <c r="D109" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E109" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B110" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C110" t="s">
         <v>154</v>
       </c>
       <c r="D110" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="E110" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B111" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C111" t="s">
         <v>155</v>
       </c>
       <c r="D111" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="E111" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -3643,10 +3604,10 @@
         <v>156</v>
       </c>
       <c r="D112" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E112" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -3660,10 +3621,10 @@
         <v>157</v>
       </c>
       <c r="D113" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="E113" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -3677,10 +3638,10 @@
         <v>158</v>
       </c>
       <c r="D114" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E114" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -3694,10 +3655,10 @@
         <v>159</v>
       </c>
       <c r="D115" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E115" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3711,10 +3672,10 @@
         <v>160</v>
       </c>
       <c r="D116" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E116" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3728,44 +3689,44 @@
         <v>161</v>
       </c>
       <c r="D117" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="E117" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B118" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C118" t="s">
         <v>162</v>
       </c>
       <c r="D118" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="E118" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B119" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C119" t="s">
         <v>163</v>
       </c>
       <c r="D119" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E119" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -3779,10 +3740,10 @@
         <v>164</v>
       </c>
       <c r="D120" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="E120" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -3796,10 +3757,10 @@
         <v>165</v>
       </c>
       <c r="D121" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="E121" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -3813,10 +3774,10 @@
         <v>166</v>
       </c>
       <c r="D122" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="E122" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -3830,10 +3791,10 @@
         <v>167</v>
       </c>
       <c r="D123" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E123" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -3847,10 +3808,10 @@
         <v>168</v>
       </c>
       <c r="D124" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="E124" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -3864,44 +3825,44 @@
         <v>169</v>
       </c>
       <c r="D125" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E125" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B126" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C126" t="s">
         <v>170</v>
       </c>
       <c r="D126" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="E126" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B127" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C127" t="s">
         <v>171</v>
       </c>
       <c r="D127" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E127" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -3915,10 +3876,10 @@
         <v>172</v>
       </c>
       <c r="D128" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="E128" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -3932,10 +3893,10 @@
         <v>173</v>
       </c>
       <c r="D129" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="E129" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -3949,10 +3910,10 @@
         <v>174</v>
       </c>
       <c r="D130" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="E130" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -3966,10 +3927,10 @@
         <v>175</v>
       </c>
       <c r="D131" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="E131" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -3983,10 +3944,10 @@
         <v>176</v>
       </c>
       <c r="D132" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="E132" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -4000,10 +3961,10 @@
         <v>177</v>
       </c>
       <c r="D133" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="E133" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -4017,10 +3978,10 @@
         <v>178</v>
       </c>
       <c r="D134" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="E134" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -4034,10 +3995,10 @@
         <v>179</v>
       </c>
       <c r="D135" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E135" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -4051,27 +4012,27 @@
         <v>180</v>
       </c>
       <c r="D136" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="E136" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B137" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C137" t="s">
         <v>181</v>
       </c>
       <c r="D137" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="E137" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -4085,10 +4046,10 @@
         <v>182</v>
       </c>
       <c r="D138" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E138" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -4102,10 +4063,10 @@
         <v>183</v>
       </c>
       <c r="D139" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="E139" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -4119,10 +4080,10 @@
         <v>184</v>
       </c>
       <c r="D140" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="E140" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -4136,10 +4097,10 @@
         <v>185</v>
       </c>
       <c r="D141" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="E141" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -4153,10 +4114,10 @@
         <v>186</v>
       </c>
       <c r="D142" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E142" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -4170,10 +4131,10 @@
         <v>187</v>
       </c>
       <c r="D143" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="E143" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -4187,10 +4148,10 @@
         <v>188</v>
       </c>
       <c r="D144" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="E144" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -4204,10 +4165,10 @@
         <v>189</v>
       </c>
       <c r="D145" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E145" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -4221,95 +4182,95 @@
         <v>190</v>
       </c>
       <c r="D146" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="E146" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B147" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C147" t="s">
         <v>191</v>
       </c>
       <c r="D147" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="E147" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B148" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C148" t="s">
         <v>192</v>
       </c>
       <c r="D148" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E148" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B149" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C149" t="s">
         <v>193</v>
       </c>
       <c r="D149" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="E149" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C150" t="s">
         <v>194</v>
       </c>
       <c r="D150" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="E150" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B151" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C151" t="s">
         <v>195</v>
       </c>
       <c r="D151" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="E151" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -4323,10 +4284,10 @@
         <v>196</v>
       </c>
       <c r="D152" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="E152" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -4340,10 +4301,10 @@
         <v>197</v>
       </c>
       <c r="D153" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="E153" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -4357,10 +4318,10 @@
         <v>198</v>
       </c>
       <c r="D154" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="E154" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -4374,10 +4335,10 @@
         <v>199</v>
       </c>
       <c r="D155" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="E155" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -4391,10 +4352,10 @@
         <v>200</v>
       </c>
       <c r="D156" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="E156" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -4408,10 +4369,10 @@
         <v>201</v>
       </c>
       <c r="D157" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="E157" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -4425,10 +4386,10 @@
         <v>202</v>
       </c>
       <c r="D158" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="E158" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -4442,10 +4403,10 @@
         <v>203</v>
       </c>
       <c r="D159" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="E159" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -4459,10 +4420,10 @@
         <v>204</v>
       </c>
       <c r="D160" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="E160" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -4476,10 +4437,10 @@
         <v>205</v>
       </c>
       <c r="D161" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="E161" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -4493,10 +4454,10 @@
         <v>206</v>
       </c>
       <c r="D162" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="E162" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -4510,10 +4471,10 @@
         <v>207</v>
       </c>
       <c r="D163" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="E163" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -4527,10 +4488,10 @@
         <v>208</v>
       </c>
       <c r="D164" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="E164" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -4544,10 +4505,10 @@
         <v>209</v>
       </c>
       <c r="D165" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="E165" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -4561,10 +4522,10 @@
         <v>210</v>
       </c>
       <c r="D166" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="E166" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -4578,44 +4539,44 @@
         <v>211</v>
       </c>
       <c r="D167" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="E167" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="168" spans="1:5">
       <c r="A168" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B168" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C168" t="s">
         <v>212</v>
       </c>
       <c r="D168" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="E168" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="169" spans="1:5">
       <c r="A169" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B169" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C169" t="s">
         <v>213</v>
       </c>
       <c r="D169" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="E169" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -4629,10 +4590,10 @@
         <v>214</v>
       </c>
       <c r="D170" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="E170" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -4646,10 +4607,10 @@
         <v>215</v>
       </c>
       <c r="D171" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="E171" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -4663,10 +4624,10 @@
         <v>216</v>
       </c>
       <c r="D172" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="E172" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -4680,10 +4641,10 @@
         <v>217</v>
       </c>
       <c r="D173" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="E173" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -4697,10 +4658,10 @@
         <v>218</v>
       </c>
       <c r="D174" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="E174" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -4714,10 +4675,10 @@
         <v>219</v>
       </c>
       <c r="D175" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="E175" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -4731,10 +4692,10 @@
         <v>220</v>
       </c>
       <c r="D176" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="E176" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -4748,10 +4709,10 @@
         <v>221</v>
       </c>
       <c r="D177" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="E177" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -4765,10 +4726,10 @@
         <v>222</v>
       </c>
       <c r="D178" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="E178" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -4782,10 +4743,10 @@
         <v>223</v>
       </c>
       <c r="D179" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="E179" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -4799,44 +4760,44 @@
         <v>224</v>
       </c>
       <c r="D180" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="E180" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="181" spans="1:5">
       <c r="A181" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B181" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C181" t="s">
         <v>225</v>
       </c>
       <c r="D181" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E181" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B182" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C182" t="s">
         <v>226</v>
       </c>
       <c r="D182" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="E182" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -4850,10 +4811,10 @@
         <v>227</v>
       </c>
       <c r="D183" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="E183" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -4867,10 +4828,10 @@
         <v>228</v>
       </c>
       <c r="D184" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="E184" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -4884,10 +4845,10 @@
         <v>229</v>
       </c>
       <c r="D185" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="E185" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -4901,10 +4862,10 @@
         <v>230</v>
       </c>
       <c r="D186" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="E186" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -4918,10 +4879,10 @@
         <v>231</v>
       </c>
       <c r="D187" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="E187" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -4935,10 +4896,10 @@
         <v>232</v>
       </c>
       <c r="D188" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="E188" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -4952,10 +4913,10 @@
         <v>233</v>
       </c>
       <c r="D189" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="E189" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -4969,61 +4930,61 @@
         <v>234</v>
       </c>
       <c r="D190" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E190" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="191" spans="1:5">
       <c r="A191" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B191" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C191" t="s">
         <v>235</v>
       </c>
       <c r="D191" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="E191" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B192" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C192" t="s">
         <v>236</v>
       </c>
       <c r="D192" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="E192" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="193" spans="1:5">
       <c r="A193" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B193" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C193" t="s">
         <v>237</v>
       </c>
       <c r="D193" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="E193" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -5037,10 +4998,10 @@
         <v>238</v>
       </c>
       <c r="D194" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="E194" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -5054,10 +5015,10 @@
         <v>239</v>
       </c>
       <c r="D195" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="E195" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -5071,10 +5032,10 @@
         <v>240</v>
       </c>
       <c r="D196" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="E196" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -5088,10 +5049,10 @@
         <v>241</v>
       </c>
       <c r="D197" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="E197" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -5105,95 +5066,10 @@
         <v>242</v>
       </c>
       <c r="D198" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E198" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5">
-      <c r="A199" t="s">
-        <v>25</v>
-      </c>
-      <c r="B199" t="s">
-        <v>45</v>
-      </c>
-      <c r="C199" t="s">
-        <v>243</v>
-      </c>
-      <c r="D199" t="s">
-        <v>444</v>
-      </c>
-      <c r="E199" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5">
-      <c r="A200" t="s">
-        <v>25</v>
-      </c>
-      <c r="B200" t="s">
-        <v>45</v>
-      </c>
-      <c r="C200" t="s">
-        <v>244</v>
-      </c>
-      <c r="D200" t="s">
-        <v>445</v>
-      </c>
-      <c r="E200" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5">
-      <c r="A201" t="s">
-        <v>25</v>
-      </c>
-      <c r="B201" t="s">
-        <v>45</v>
-      </c>
-      <c r="C201" t="s">
-        <v>245</v>
-      </c>
-      <c r="D201" t="s">
-        <v>446</v>
-      </c>
-      <c r="E201" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5">
-      <c r="A202" t="s">
-        <v>25</v>
-      </c>
-      <c r="B202" t="s">
-        <v>45</v>
-      </c>
-      <c r="C202" t="s">
-        <v>246</v>
-      </c>
-      <c r="D202" t="s">
-        <v>447</v>
-      </c>
-      <c r="E202" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5">
-      <c r="A203" t="s">
-        <v>25</v>
-      </c>
-      <c r="B203" t="s">
-        <v>45</v>
-      </c>
-      <c r="C203" t="s">
-        <v>247</v>
-      </c>
-      <c r="D203" t="s">
-        <v>448</v>
-      </c>
-      <c r="E203" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
   </sheetData>

--- a/data/fakesystem/sys_SSE.xlsx
+++ b/data/fakesystem/sys_SSE.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Khor Kean Teng\Downloads\AUP Automata\data\fakesystem\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F4256F-E62B-4BBF-B5BA-C80F7C1A8AD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SSE" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="444">
   <si>
     <t>Department</t>
   </si>
@@ -1337,13 +1343,22 @@
   </si>
   <si>
     <t>SSE</t>
+  </si>
+  <si>
+    <t>Disable Flag *</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1368,7 +1383,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1391,13 +1406,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1406,13 +1435,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1450,7 +1487,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1484,6 +1521,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1518,9 +1556,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1693,14 +1732,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F198"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G198"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1719,8 +1760,11 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1739,8 +1783,11 @@
       <c r="F2">
         <v>110773</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1756,8 +1803,11 @@
       <c r="E3" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1773,8 +1823,11 @@
       <c r="E4" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1790,8 +1843,11 @@
       <c r="E5" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1807,8 +1863,11 @@
       <c r="E6" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1824,8 +1883,11 @@
       <c r="E7" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1841,8 +1903,11 @@
       <c r="E8" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1858,8 +1923,11 @@
       <c r="E9" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1875,8 +1943,11 @@
       <c r="E10" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1892,8 +1963,11 @@
       <c r="E11" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1909,8 +1983,11 @@
       <c r="E12" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1926,8 +2003,11 @@
       <c r="E13" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -1943,8 +2023,11 @@
       <c r="E14" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -1960,8 +2043,11 @@
       <c r="E15" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -1977,8 +2063,11 @@
       <c r="E16" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="G16" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -1994,8 +2083,11 @@
       <c r="E17" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="G17" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -2011,8 +2103,11 @@
       <c r="E18" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="G18" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -2028,8 +2123,11 @@
       <c r="E19" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="G19" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -2045,8 +2143,11 @@
       <c r="E20" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="G20" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -2062,8 +2163,11 @@
       <c r="E21" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="G21" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -2079,8 +2183,11 @@
       <c r="E22" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="G22" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -2096,8 +2203,11 @@
       <c r="E23" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="G23" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -2113,8 +2223,11 @@
       <c r="E24" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="G24" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -2130,8 +2243,11 @@
       <c r="E25" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="G25" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -2147,8 +2263,11 @@
       <c r="E26" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="G26" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -2164,8 +2283,11 @@
       <c r="E27" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="G27" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -2181,8 +2303,11 @@
       <c r="E28" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="G28" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -2198,8 +2323,11 @@
       <c r="E29" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="G29" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -2215,8 +2343,11 @@
       <c r="E30" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="G30" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -2232,8 +2363,11 @@
       <c r="E31" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="G31" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -2249,8 +2383,11 @@
       <c r="E32" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="G32" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -2266,8 +2403,11 @@
       <c r="E33" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="G33" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -2283,8 +2423,11 @@
       <c r="E34" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="G34" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>9</v>
       </c>
@@ -2300,8 +2443,11 @@
       <c r="E35" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="G35" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>9</v>
       </c>
@@ -2317,8 +2463,11 @@
       <c r="E36" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="G36" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -2334,8 +2483,11 @@
       <c r="E37" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="G37" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>9</v>
       </c>
@@ -2351,8 +2503,11 @@
       <c r="E38" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="G38" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>9</v>
       </c>
@@ -2368,8 +2523,11 @@
       <c r="E39" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="G39" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>9</v>
       </c>
@@ -2385,8 +2543,11 @@
       <c r="E40" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="G40" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>9</v>
       </c>
@@ -2402,8 +2563,11 @@
       <c r="E41" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="G41" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>9</v>
       </c>
@@ -2419,8 +2583,11 @@
       <c r="E42" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="G42" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>9</v>
       </c>
@@ -2436,8 +2603,11 @@
       <c r="E43" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="G43" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>9</v>
       </c>
@@ -2453,8 +2623,11 @@
       <c r="E44" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="G44" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>9</v>
       </c>
@@ -2470,8 +2643,11 @@
       <c r="E45" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="G45" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>9</v>
       </c>
@@ -2487,8 +2663,11 @@
       <c r="E46" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="G46" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>10</v>
       </c>
@@ -2504,8 +2683,11 @@
       <c r="E47" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="G47" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>10</v>
       </c>
@@ -2521,8 +2703,11 @@
       <c r="E48" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="G48" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>10</v>
       </c>
@@ -2538,8 +2723,11 @@
       <c r="E49" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="G49" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>10</v>
       </c>
@@ -2555,8 +2743,11 @@
       <c r="E50" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="G50" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>10</v>
       </c>
@@ -2572,8 +2763,11 @@
       <c r="E51" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="G51" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>10</v>
       </c>
@@ -2589,8 +2783,11 @@
       <c r="E52" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="G52" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>10</v>
       </c>
@@ -2606,8 +2803,11 @@
       <c r="E53" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="G53" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>10</v>
       </c>
@@ -2623,8 +2823,11 @@
       <c r="E54" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="G54" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>11</v>
       </c>
@@ -2640,8 +2843,11 @@
       <c r="E55" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="G55" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>11</v>
       </c>
@@ -2657,8 +2863,11 @@
       <c r="E56" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="G56" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>11</v>
       </c>
@@ -2674,8 +2883,11 @@
       <c r="E57" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="G57" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>11</v>
       </c>
@@ -2691,8 +2903,11 @@
       <c r="E58" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="G58" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>11</v>
       </c>
@@ -2708,8 +2923,11 @@
       <c r="E59" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="G59" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>11</v>
       </c>
@@ -2725,8 +2943,11 @@
       <c r="E60" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="61" spans="1:5">
+      <c r="G60" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>11</v>
       </c>
@@ -2742,8 +2963,11 @@
       <c r="E61" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="62" spans="1:5">
+      <c r="G61" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>11</v>
       </c>
@@ -2759,8 +2983,11 @@
       <c r="E62" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="G62" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>11</v>
       </c>
@@ -2776,8 +3003,11 @@
       <c r="E63" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="64" spans="1:5">
+      <c r="G63" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>11</v>
       </c>
@@ -2793,8 +3023,11 @@
       <c r="E64" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="65" spans="1:5">
+      <c r="G64" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>11</v>
       </c>
@@ -2810,8 +3043,11 @@
       <c r="E65" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="66" spans="1:5">
+      <c r="G65" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>11</v>
       </c>
@@ -2827,8 +3063,11 @@
       <c r="E66" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="67" spans="1:5">
+      <c r="G66" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>11</v>
       </c>
@@ -2844,8 +3083,11 @@
       <c r="E67" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="68" spans="1:5">
+      <c r="G67" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>11</v>
       </c>
@@ -2861,8 +3103,11 @@
       <c r="E68" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="69" spans="1:5">
+      <c r="G68" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>11</v>
       </c>
@@ -2878,8 +3123,11 @@
       <c r="E69" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="70" spans="1:5">
+      <c r="G69" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>11</v>
       </c>
@@ -2895,8 +3143,11 @@
       <c r="E70" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="G70" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>11</v>
       </c>
@@ -2912,8 +3163,11 @@
       <c r="E71" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="72" spans="1:5">
+      <c r="G71" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>12</v>
       </c>
@@ -2929,8 +3183,11 @@
       <c r="E72" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="73" spans="1:5">
+      <c r="G72" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>12</v>
       </c>
@@ -2946,8 +3203,11 @@
       <c r="E73" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="74" spans="1:5">
+      <c r="G73" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>12</v>
       </c>
@@ -2963,8 +3223,11 @@
       <c r="E74" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="75" spans="1:5">
+      <c r="G74" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>12</v>
       </c>
@@ -2980,8 +3243,11 @@
       <c r="E75" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="76" spans="1:5">
+      <c r="G75" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>12</v>
       </c>
@@ -2997,8 +3263,11 @@
       <c r="E76" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="77" spans="1:5">
+      <c r="G76" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>13</v>
       </c>
@@ -3014,8 +3283,11 @@
       <c r="E77" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="78" spans="1:5">
+      <c r="G77" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>13</v>
       </c>
@@ -3031,8 +3303,11 @@
       <c r="E78" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="79" spans="1:5">
+      <c r="G78" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>13</v>
       </c>
@@ -3048,8 +3323,11 @@
       <c r="E79" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="G79" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>13</v>
       </c>
@@ -3065,8 +3343,11 @@
       <c r="E80" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="81" spans="1:5">
+      <c r="G80" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>13</v>
       </c>
@@ -3082,8 +3363,11 @@
       <c r="E81" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="82" spans="1:5">
+      <c r="G81" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>14</v>
       </c>
@@ -3099,8 +3383,11 @@
       <c r="E82" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="83" spans="1:5">
+      <c r="G82" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>14</v>
       </c>
@@ -3116,8 +3403,11 @@
       <c r="E83" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="84" spans="1:5">
+      <c r="G83" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>14</v>
       </c>
@@ -3133,8 +3423,11 @@
       <c r="E84" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="G84" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>14</v>
       </c>
@@ -3150,8 +3443,11 @@
       <c r="E85" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="86" spans="1:5">
+      <c r="G85" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>14</v>
       </c>
@@ -3167,8 +3463,11 @@
       <c r="E86" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="87" spans="1:5">
+      <c r="G86" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>14</v>
       </c>
@@ -3184,8 +3483,11 @@
       <c r="E87" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="88" spans="1:5">
+      <c r="G87" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>14</v>
       </c>
@@ -3201,8 +3503,11 @@
       <c r="E88" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="89" spans="1:5">
+      <c r="G88" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>14</v>
       </c>
@@ -3218,8 +3523,11 @@
       <c r="E89" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="90" spans="1:5">
+      <c r="G89" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>14</v>
       </c>
@@ -3235,8 +3543,11 @@
       <c r="E90" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="91" spans="1:5">
+      <c r="G90" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>15</v>
       </c>
@@ -3252,8 +3563,11 @@
       <c r="E91" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="92" spans="1:5">
+      <c r="G91" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>15</v>
       </c>
@@ -3269,8 +3583,11 @@
       <c r="E92" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="93" spans="1:5">
+      <c r="G92" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>15</v>
       </c>
@@ -3286,8 +3603,11 @@
       <c r="E93" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="94" spans="1:5">
+      <c r="G93" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>15</v>
       </c>
@@ -3303,8 +3623,11 @@
       <c r="E94" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="95" spans="1:5">
+      <c r="G94" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>15</v>
       </c>
@@ -3320,8 +3643,11 @@
       <c r="E95" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="96" spans="1:5">
+      <c r="G95" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>15</v>
       </c>
@@ -3337,8 +3663,11 @@
       <c r="E96" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="G96" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>15</v>
       </c>
@@ -3354,8 +3683,11 @@
       <c r="E97" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="G97" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>15</v>
       </c>
@@ -3371,8 +3703,11 @@
       <c r="E98" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="99" spans="1:5">
+      <c r="G98" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>15</v>
       </c>
@@ -3388,8 +3723,11 @@
       <c r="E99" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="G99" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>15</v>
       </c>
@@ -3405,8 +3743,11 @@
       <c r="E100" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="G100" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>16</v>
       </c>
@@ -3422,8 +3763,11 @@
       <c r="E101" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="102" spans="1:5">
+      <c r="G101" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>16</v>
       </c>
@@ -3439,8 +3783,11 @@
       <c r="E102" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="103" spans="1:5">
+      <c r="G102" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>16</v>
       </c>
@@ -3456,8 +3803,11 @@
       <c r="E103" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="G103" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>16</v>
       </c>
@@ -3473,8 +3823,11 @@
       <c r="E104" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="105" spans="1:5">
+      <c r="G104" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>16</v>
       </c>
@@ -3490,8 +3843,11 @@
       <c r="E105" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="106" spans="1:5">
+      <c r="G105" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>16</v>
       </c>
@@ -3507,8 +3863,11 @@
       <c r="E106" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="107" spans="1:5">
+      <c r="G106" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>16</v>
       </c>
@@ -3524,8 +3883,11 @@
       <c r="E107" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="108" spans="1:5">
+      <c r="G107" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>16</v>
       </c>
@@ -3541,8 +3903,11 @@
       <c r="E108" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="109" spans="1:5">
+      <c r="G108" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>16</v>
       </c>
@@ -3558,8 +3923,11 @@
       <c r="E109" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="110" spans="1:5">
+      <c r="G109" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>16</v>
       </c>
@@ -3575,8 +3943,11 @@
       <c r="E110" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="111" spans="1:5">
+      <c r="G110" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>16</v>
       </c>
@@ -3592,8 +3963,11 @@
       <c r="E111" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="112" spans="1:5">
+      <c r="G111" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>17</v>
       </c>
@@ -3609,8 +3983,11 @@
       <c r="E112" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="113" spans="1:5">
+      <c r="G112" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>17</v>
       </c>
@@ -3626,8 +4003,11 @@
       <c r="E113" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="114" spans="1:5">
+      <c r="G113" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>17</v>
       </c>
@@ -3643,8 +4023,11 @@
       <c r="E114" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="115" spans="1:5">
+      <c r="G114" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>17</v>
       </c>
@@ -3660,8 +4043,11 @@
       <c r="E115" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="116" spans="1:5">
+      <c r="G115" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>17</v>
       </c>
@@ -3677,8 +4063,11 @@
       <c r="E116" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="117" spans="1:5">
+      <c r="G116" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>17</v>
       </c>
@@ -3694,8 +4083,11 @@
       <c r="E117" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="118" spans="1:5">
+      <c r="G117" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>17</v>
       </c>
@@ -3711,8 +4103,11 @@
       <c r="E118" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="119" spans="1:5">
+      <c r="G118" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>17</v>
       </c>
@@ -3728,8 +4123,11 @@
       <c r="E119" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="120" spans="1:5">
+      <c r="G119" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>18</v>
       </c>
@@ -3745,8 +4143,11 @@
       <c r="E120" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="121" spans="1:5">
+      <c r="G120" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>18</v>
       </c>
@@ -3762,8 +4163,11 @@
       <c r="E121" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="122" spans="1:5">
+      <c r="G121" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>18</v>
       </c>
@@ -3779,8 +4183,11 @@
       <c r="E122" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="123" spans="1:5">
+      <c r="G122" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>18</v>
       </c>
@@ -3796,8 +4203,11 @@
       <c r="E123" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="124" spans="1:5">
+      <c r="G123" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>18</v>
       </c>
@@ -3813,8 +4223,11 @@
       <c r="E124" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="125" spans="1:5">
+      <c r="G124" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>18</v>
       </c>
@@ -3830,8 +4243,11 @@
       <c r="E125" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="126" spans="1:5">
+      <c r="G125" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>19</v>
       </c>
@@ -3847,8 +4263,11 @@
       <c r="E126" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="127" spans="1:5">
+      <c r="G126" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>19</v>
       </c>
@@ -3864,8 +4283,11 @@
       <c r="E127" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="128" spans="1:5">
+      <c r="G127" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>19</v>
       </c>
@@ -3881,8 +4303,11 @@
       <c r="E128" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="129" spans="1:5">
+      <c r="G128" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>19</v>
       </c>
@@ -3898,8 +4323,11 @@
       <c r="E129" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="130" spans="1:5">
+      <c r="G129" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>19</v>
       </c>
@@ -3915,8 +4343,11 @@
       <c r="E130" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="131" spans="1:5">
+      <c r="G130" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>19</v>
       </c>
@@ -3932,8 +4363,11 @@
       <c r="E131" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="132" spans="1:5">
+      <c r="G131" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>19</v>
       </c>
@@ -3949,8 +4383,11 @@
       <c r="E132" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="133" spans="1:5">
+      <c r="G132" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>19</v>
       </c>
@@ -3966,8 +4403,11 @@
       <c r="E133" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="134" spans="1:5">
+      <c r="G133" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>19</v>
       </c>
@@ -3983,8 +4423,11 @@
       <c r="E134" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="135" spans="1:5">
+      <c r="G134" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>19</v>
       </c>
@@ -4000,8 +4443,11 @@
       <c r="E135" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="136" spans="1:5">
+      <c r="G135" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>19</v>
       </c>
@@ -4017,8 +4463,11 @@
       <c r="E136" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="137" spans="1:5">
+      <c r="G136" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>19</v>
       </c>
@@ -4034,8 +4483,11 @@
       <c r="E137" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="138" spans="1:5">
+      <c r="G137" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>20</v>
       </c>
@@ -4051,8 +4503,11 @@
       <c r="E138" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="139" spans="1:5">
+      <c r="G138" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>20</v>
       </c>
@@ -4068,8 +4523,11 @@
       <c r="E139" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="140" spans="1:5">
+      <c r="G139" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>20</v>
       </c>
@@ -4085,8 +4543,11 @@
       <c r="E140" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="141" spans="1:5">
+      <c r="G140" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>20</v>
       </c>
@@ -4102,8 +4563,11 @@
       <c r="E141" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="142" spans="1:5">
+      <c r="G141" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>20</v>
       </c>
@@ -4119,8 +4583,11 @@
       <c r="E142" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="143" spans="1:5">
+      <c r="G142" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>20</v>
       </c>
@@ -4136,8 +4603,11 @@
       <c r="E143" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="144" spans="1:5">
+      <c r="G143" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>20</v>
       </c>
@@ -4153,8 +4623,11 @@
       <c r="E144" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="145" spans="1:5">
+      <c r="G144" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>20</v>
       </c>
@@ -4170,8 +4643,11 @@
       <c r="E145" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="146" spans="1:5">
+      <c r="G145" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>20</v>
       </c>
@@ -4187,8 +4663,11 @@
       <c r="E146" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="147" spans="1:5">
+      <c r="G146" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>20</v>
       </c>
@@ -4204,8 +4683,11 @@
       <c r="E147" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="148" spans="1:5">
+      <c r="G147" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>20</v>
       </c>
@@ -4221,8 +4703,11 @@
       <c r="E148" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="149" spans="1:5">
+      <c r="G148" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>20</v>
       </c>
@@ -4238,8 +4723,11 @@
       <c r="E149" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="150" spans="1:5">
+      <c r="G149" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>20</v>
       </c>
@@ -4255,8 +4743,11 @@
       <c r="E150" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="151" spans="1:5">
+      <c r="G150" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>20</v>
       </c>
@@ -4272,8 +4763,11 @@
       <c r="E151" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="152" spans="1:5">
+      <c r="G151" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>21</v>
       </c>
@@ -4289,8 +4783,11 @@
       <c r="E152" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="153" spans="1:5">
+      <c r="G152" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>21</v>
       </c>
@@ -4306,8 +4803,11 @@
       <c r="E153" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="154" spans="1:5">
+      <c r="G153" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>21</v>
       </c>
@@ -4323,8 +4823,11 @@
       <c r="E154" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="155" spans="1:5">
+      <c r="G154" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>21</v>
       </c>
@@ -4340,8 +4843,11 @@
       <c r="E155" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="156" spans="1:5">
+      <c r="G155" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>21</v>
       </c>
@@ -4357,8 +4863,11 @@
       <c r="E156" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="157" spans="1:5">
+      <c r="G156" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>21</v>
       </c>
@@ -4374,8 +4883,11 @@
       <c r="E157" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="158" spans="1:5">
+      <c r="G157" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>22</v>
       </c>
@@ -4391,8 +4903,11 @@
       <c r="E158" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="159" spans="1:5">
+      <c r="G158" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>22</v>
       </c>
@@ -4408,8 +4923,11 @@
       <c r="E159" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="160" spans="1:5">
+      <c r="G159" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>22</v>
       </c>
@@ -4425,8 +4943,11 @@
       <c r="E160" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="161" spans="1:5">
+      <c r="G160" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>22</v>
       </c>
@@ -4442,8 +4963,11 @@
       <c r="E161" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="162" spans="1:5">
+      <c r="G161" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>22</v>
       </c>
@@ -4459,8 +4983,11 @@
       <c r="E162" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="163" spans="1:5">
+      <c r="G162" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>22</v>
       </c>
@@ -4476,8 +5003,11 @@
       <c r="E163" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="164" spans="1:5">
+      <c r="G163" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>22</v>
       </c>
@@ -4493,8 +5023,11 @@
       <c r="E164" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="165" spans="1:5">
+      <c r="G164" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>22</v>
       </c>
@@ -4510,8 +5043,11 @@
       <c r="E165" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="166" spans="1:5">
+      <c r="G165" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>22</v>
       </c>
@@ -4527,8 +5063,11 @@
       <c r="E166" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="167" spans="1:5">
+      <c r="G166" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>22</v>
       </c>
@@ -4544,8 +5083,11 @@
       <c r="E167" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="168" spans="1:5">
+      <c r="G167" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>22</v>
       </c>
@@ -4561,8 +5103,11 @@
       <c r="E168" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="169" spans="1:5">
+      <c r="G168" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>22</v>
       </c>
@@ -4578,8 +5123,11 @@
       <c r="E169" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="170" spans="1:5">
+      <c r="G169" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>23</v>
       </c>
@@ -4595,8 +5143,11 @@
       <c r="E170" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="171" spans="1:5">
+      <c r="G170" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>23</v>
       </c>
@@ -4612,8 +5163,11 @@
       <c r="E171" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="172" spans="1:5">
+      <c r="G171" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>23</v>
       </c>
@@ -4629,8 +5183,11 @@
       <c r="E172" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="173" spans="1:5">
+      <c r="G172" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>23</v>
       </c>
@@ -4646,8 +5203,11 @@
       <c r="E173" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="174" spans="1:5">
+      <c r="G173" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>23</v>
       </c>
@@ -4663,8 +5223,11 @@
       <c r="E174" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="175" spans="1:5">
+      <c r="G174" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>23</v>
       </c>
@@ -4680,8 +5243,11 @@
       <c r="E175" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="176" spans="1:5">
+      <c r="G175" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>23</v>
       </c>
@@ -4697,8 +5263,11 @@
       <c r="E176" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="177" spans="1:5">
+      <c r="G176" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>23</v>
       </c>
@@ -4714,8 +5283,11 @@
       <c r="E177" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="178" spans="1:5">
+      <c r="G177" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>23</v>
       </c>
@@ -4731,8 +5303,11 @@
       <c r="E178" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="179" spans="1:5">
+      <c r="G178" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>23</v>
       </c>
@@ -4748,8 +5323,11 @@
       <c r="E179" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="180" spans="1:5">
+      <c r="G179" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>23</v>
       </c>
@@ -4765,8 +5343,11 @@
       <c r="E180" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="181" spans="1:5">
+      <c r="G180" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>23</v>
       </c>
@@ -4782,8 +5363,11 @@
       <c r="E181" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="182" spans="1:5">
+      <c r="G181" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>23</v>
       </c>
@@ -4799,8 +5383,11 @@
       <c r="E182" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="183" spans="1:5">
+      <c r="G182" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>24</v>
       </c>
@@ -4816,8 +5403,11 @@
       <c r="E183" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="184" spans="1:5">
+      <c r="G183" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>24</v>
       </c>
@@ -4833,8 +5423,11 @@
       <c r="E184" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="185" spans="1:5">
+      <c r="G184" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>24</v>
       </c>
@@ -4850,8 +5443,11 @@
       <c r="E185" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="186" spans="1:5">
+      <c r="G185" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>24</v>
       </c>
@@ -4867,8 +5463,11 @@
       <c r="E186" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="187" spans="1:5">
+      <c r="G186" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>24</v>
       </c>
@@ -4884,8 +5483,11 @@
       <c r="E187" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="188" spans="1:5">
+      <c r="G187" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>24</v>
       </c>
@@ -4901,8 +5503,11 @@
       <c r="E188" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="189" spans="1:5">
+      <c r="G188" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>24</v>
       </c>
@@ -4918,8 +5523,11 @@
       <c r="E189" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="190" spans="1:5">
+      <c r="G189" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>24</v>
       </c>
@@ -4935,8 +5543,11 @@
       <c r="E190" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="191" spans="1:5">
+      <c r="G190" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>25</v>
       </c>
@@ -4952,8 +5563,11 @@
       <c r="E191" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="192" spans="1:5">
+      <c r="G191" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>25</v>
       </c>
@@ -4969,8 +5583,11 @@
       <c r="E192" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="193" spans="1:5">
+      <c r="G192" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>25</v>
       </c>
@@ -4986,8 +5603,11 @@
       <c r="E193" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="194" spans="1:5">
+      <c r="G193" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>25</v>
       </c>
@@ -5003,8 +5623,11 @@
       <c r="E194" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="195" spans="1:5">
+      <c r="G194" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>25</v>
       </c>
@@ -5020,8 +5643,11 @@
       <c r="E195" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="196" spans="1:5">
+      <c r="G195" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>25</v>
       </c>
@@ -5037,8 +5663,11 @@
       <c r="E196" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="197" spans="1:5">
+      <c r="G196" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>25</v>
       </c>
@@ -5054,8 +5683,11 @@
       <c r="E197" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="198" spans="1:5">
+      <c r="G197" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>25</v>
       </c>
@@ -5070,6 +5702,9 @@
       </c>
       <c r="E198" t="s">
         <v>440</v>
+      </c>
+      <c r="G198" t="s">
+        <v>443</v>
       </c>
     </row>
   </sheetData>
